--- a/counts/ALS Mice/experimental/results/tg_2-tg_3/KEGG.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_2-tg_3/KEGG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="807">
   <si>
     <t>ID</t>
   </si>
@@ -126,54 +126,54 @@
     <t>mmu05133</t>
   </si>
   <si>
+    <t>mmu00310</t>
+  </si>
+  <si>
+    <t>mmu04392</t>
+  </si>
+  <si>
+    <t>mmu04662</t>
+  </si>
+  <si>
+    <t>mmu04512</t>
+  </si>
+  <si>
+    <t>mmu05212</t>
+  </si>
+  <si>
+    <t>mmu04919</t>
+  </si>
+  <si>
+    <t>mmu05221</t>
+  </si>
+  <si>
+    <t>mmu05152</t>
+  </si>
+  <si>
+    <t>mmu05162</t>
+  </si>
+  <si>
+    <t>mmu04350</t>
+  </si>
+  <si>
+    <t>mmu04659</t>
+  </si>
+  <si>
+    <t>mmu04015</t>
+  </si>
+  <si>
+    <t>mmu04070</t>
+  </si>
+  <si>
+    <t>mmu04360</t>
+  </si>
+  <si>
+    <t>mmu04666</t>
+  </si>
+  <si>
     <t>mmu05215</t>
   </si>
   <si>
-    <t>mmu00310</t>
-  </si>
-  <si>
-    <t>mmu04392</t>
-  </si>
-  <si>
-    <t>mmu04662</t>
-  </si>
-  <si>
-    <t>mmu04512</t>
-  </si>
-  <si>
-    <t>mmu05212</t>
-  </si>
-  <si>
-    <t>mmu04919</t>
-  </si>
-  <si>
-    <t>mmu05221</t>
-  </si>
-  <si>
-    <t>mmu05152</t>
-  </si>
-  <si>
-    <t>mmu05162</t>
-  </si>
-  <si>
-    <t>mmu04350</t>
-  </si>
-  <si>
-    <t>mmu04659</t>
-  </si>
-  <si>
-    <t>mmu04015</t>
-  </si>
-  <si>
-    <t>mmu04070</t>
-  </si>
-  <si>
-    <t>mmu04360</t>
-  </si>
-  <si>
-    <t>mmu04666</t>
-  </si>
-  <si>
     <t>mmu04390</t>
   </si>
   <si>
@@ -225,9 +225,6 @@
     <t>mmu04910</t>
   </si>
   <si>
-    <t>mmu05225</t>
-  </si>
-  <si>
     <t>mmu05224</t>
   </si>
   <si>
@@ -252,15 +249,15 @@
     <t>mmu04530</t>
   </si>
   <si>
+    <t>mmu04066</t>
+  </si>
+  <si>
     <t>mmu05223</t>
   </si>
   <si>
     <t>mmu04550</t>
   </si>
   <si>
-    <t>mmu04066</t>
-  </si>
-  <si>
     <t>mmu04630</t>
   </si>
   <si>
@@ -276,18 +273,21 @@
     <t>mmu04722</t>
   </si>
   <si>
+    <t>mmu04024</t>
+  </si>
+  <si>
     <t>mmu00512</t>
   </si>
   <si>
-    <t>mmu04024</t>
-  </si>
-  <si>
     <t>mmu05412</t>
   </si>
   <si>
     <t>mmu04611</t>
   </si>
   <si>
+    <t>mmu03018</t>
+  </si>
+  <si>
     <t>mmu05146</t>
   </si>
   <si>
@@ -303,18 +303,15 @@
     <t>mmu04211</t>
   </si>
   <si>
-    <t>mmu03018</t>
-  </si>
-  <si>
     <t>mmu05100</t>
   </si>
   <si>
+    <t>mmu04310</t>
+  </si>
+  <si>
     <t>mmu03460</t>
   </si>
   <si>
-    <t>mmu04310</t>
-  </si>
-  <si>
     <t>mmu04720</t>
   </si>
   <si>
@@ -504,54 +501,54 @@
     <t>Pertussis</t>
   </si>
   <si>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>Hippo signaling pathway - multiple species</t>
+  </si>
+  <si>
+    <t>B cell receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>ECM-receptor interaction</t>
+  </si>
+  <si>
+    <t>Pancreatic cancer</t>
+  </si>
+  <si>
+    <t>Thyroid hormone signaling pathway</t>
+  </si>
+  <si>
+    <t>Acute myeloid leukemia</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Measles</t>
+  </si>
+  <si>
+    <t>TGF-beta signaling pathway</t>
+  </si>
+  <si>
+    <t>Th17 cell differentiation</t>
+  </si>
+  <si>
+    <t>Rap1 signaling pathway</t>
+  </si>
+  <si>
+    <t>Phosphatidylinositol signaling system</t>
+  </si>
+  <si>
+    <t>Axon guidance</t>
+  </si>
+  <si>
+    <t>Fc gamma R-mediated phagocytosis</t>
+  </si>
+  <si>
     <t>Prostate cancer</t>
   </si>
   <si>
-    <t>Lysine degradation</t>
-  </si>
-  <si>
-    <t>Hippo signaling pathway - multiple species</t>
-  </si>
-  <si>
-    <t>B cell receptor signaling pathway</t>
-  </si>
-  <si>
-    <t>ECM-receptor interaction</t>
-  </si>
-  <si>
-    <t>Pancreatic cancer</t>
-  </si>
-  <si>
-    <t>Thyroid hormone signaling pathway</t>
-  </si>
-  <si>
-    <t>Acute myeloid leukemia</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>TGF-beta signaling pathway</t>
-  </si>
-  <si>
-    <t>Th17 cell differentiation</t>
-  </si>
-  <si>
-    <t>Rap1 signaling pathway</t>
-  </si>
-  <si>
-    <t>Phosphatidylinositol signaling system</t>
-  </si>
-  <si>
-    <t>Axon guidance</t>
-  </si>
-  <si>
-    <t>Fc gamma R-mediated phagocytosis</t>
-  </si>
-  <si>
     <t>Hippo signaling pathway</t>
   </si>
   <si>
@@ -603,9 +600,6 @@
     <t>Insulin signaling pathway</t>
   </si>
   <si>
-    <t>Hepatocellular carcinoma</t>
-  </si>
-  <si>
     <t>Breast cancer</t>
   </si>
   <si>
@@ -630,15 +624,15 @@
     <t>Tight junction</t>
   </si>
   <si>
+    <t>HIF-1 signaling pathway</t>
+  </si>
+  <si>
     <t>Non-small cell lung cancer</t>
   </si>
   <si>
     <t>Signaling pathways regulating pluripotency of stem cells</t>
   </si>
   <si>
-    <t>HIF-1 signaling pathway</t>
-  </si>
-  <si>
     <t>Jak-STAT signaling pathway</t>
   </si>
   <si>
@@ -654,18 +648,21 @@
     <t>Neurotrophin signaling pathway</t>
   </si>
   <si>
+    <t>cAMP signaling pathway</t>
+  </si>
+  <si>
     <t>Mucin type O-glycan biosynthesis</t>
   </si>
   <si>
-    <t>cAMP signaling pathway</t>
-  </si>
-  <si>
     <t>Arrhythmogenic right ventricular cardiomyopathy (ARVC)</t>
   </si>
   <si>
     <t>Platelet activation</t>
   </si>
   <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
     <t>Amoebiasis</t>
   </si>
   <si>
@@ -681,18 +678,15 @@
     <t>Longevity regulating pathway</t>
   </si>
   <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
     <t>Bacterial invasion of epithelial cells</t>
   </si>
   <si>
+    <t>Wnt signaling pathway</t>
+  </si>
+  <si>
     <t>Fanconi anemia pathway</t>
   </si>
   <si>
-    <t>Wnt signaling pathway</t>
-  </si>
-  <si>
     <t>Long-term potentiation</t>
   </si>
   <si>
@@ -798,517 +792,514 @@
     <t>Oxytocin signaling pathway</t>
   </si>
   <si>
-    <t>110/2877</t>
-  </si>
-  <si>
-    <t>204/2877</t>
-  </si>
-  <si>
-    <t>117/2877</t>
-  </si>
-  <si>
-    <t>49/2877</t>
-  </si>
-  <si>
-    <t>80/2877</t>
-  </si>
-  <si>
-    <t>62/2877</t>
-  </si>
-  <si>
-    <t>150/2877</t>
-  </si>
-  <si>
-    <t>77/2877</t>
-  </si>
-  <si>
-    <t>176/2877</t>
-  </si>
-  <si>
-    <t>109/2877</t>
-  </si>
-  <si>
-    <t>65/2877</t>
-  </si>
-  <si>
-    <t>102/2877</t>
-  </si>
-  <si>
-    <t>48/2877</t>
-  </si>
-  <si>
-    <t>92/2877</t>
-  </si>
-  <si>
-    <t>168/2877</t>
-  </si>
-  <si>
-    <t>50/2877</t>
-  </si>
-  <si>
-    <t>44/2877</t>
-  </si>
-  <si>
-    <t>127/2877</t>
-  </si>
-  <si>
-    <t>63/2877</t>
-  </si>
-  <si>
-    <t>70/2877</t>
-  </si>
-  <si>
-    <t>78/2877</t>
-  </si>
-  <si>
-    <t>74/2877</t>
-  </si>
-  <si>
-    <t>71/2877</t>
-  </si>
-  <si>
-    <t>45/2877</t>
-  </si>
-  <si>
-    <t>55/2877</t>
-  </si>
-  <si>
-    <t>37/2877</t>
-  </si>
-  <si>
-    <t>20/2877</t>
-  </si>
-  <si>
-    <t>43/2877</t>
-  </si>
-  <si>
-    <t>41/2877</t>
-  </si>
-  <si>
-    <t>89/2877</t>
-  </si>
-  <si>
-    <t>53/2877</t>
-  </si>
-  <si>
-    <t>86/2877</t>
-  </si>
-  <si>
-    <t>42/2877</t>
-  </si>
-  <si>
-    <t>82/2877</t>
-  </si>
-  <si>
-    <t>21/2877</t>
-  </si>
-  <si>
-    <t>88/2877</t>
-  </si>
-  <si>
-    <t>59/2877</t>
-  </si>
-  <si>
-    <t>27/2877</t>
-  </si>
-  <si>
-    <t>105/2877</t>
-  </si>
-  <si>
-    <t>106/2877</t>
-  </si>
-  <si>
-    <t>46/2877</t>
-  </si>
-  <si>
-    <t>69/2877</t>
-  </si>
-  <si>
-    <t>81/2877</t>
-  </si>
-  <si>
-    <t>73/2877</t>
-  </si>
-  <si>
-    <t>100/2877</t>
-  </si>
-  <si>
-    <t>51/2877</t>
-  </si>
-  <si>
-    <t>121/2877</t>
-  </si>
-  <si>
-    <t>23/2877</t>
-  </si>
-  <si>
-    <t>30/2877</t>
-  </si>
-  <si>
-    <t>79/2877</t>
-  </si>
-  <si>
-    <t>36/2877</t>
-  </si>
-  <si>
-    <t>66/2877</t>
-  </si>
-  <si>
-    <t>75/2877</t>
-  </si>
-  <si>
-    <t>32/2877</t>
-  </si>
-  <si>
-    <t>13/2877</t>
-  </si>
-  <si>
-    <t>18/2877</t>
-  </si>
-  <si>
-    <t>90/2877</t>
-  </si>
-  <si>
-    <t>38/2877</t>
-  </si>
-  <si>
-    <t>60/2877</t>
-  </si>
-  <si>
-    <t>52/2877</t>
-  </si>
-  <si>
-    <t>40/2877</t>
-  </si>
-  <si>
-    <t>39/2877</t>
-  </si>
-  <si>
-    <t>28/2877</t>
-  </si>
-  <si>
-    <t>68/2877</t>
-  </si>
-  <si>
-    <t>35/2877</t>
-  </si>
-  <si>
-    <t>54/2877</t>
-  </si>
-  <si>
-    <t>87/2877</t>
-  </si>
-  <si>
-    <t>31/2877</t>
-  </si>
-  <si>
-    <t>16/2877</t>
-  </si>
-  <si>
-    <t>56/2877</t>
-  </si>
-  <si>
-    <t>19/2877</t>
-  </si>
-  <si>
-    <t>25/2877</t>
-  </si>
-  <si>
-    <t>17/2877</t>
-  </si>
-  <si>
-    <t>94/2877</t>
-  </si>
-  <si>
-    <t>67/2877</t>
-  </si>
-  <si>
-    <t>183/8114</t>
-  </si>
-  <si>
-    <t>394/8114</t>
-  </si>
-  <si>
-    <t>206/8114</t>
-  </si>
-  <si>
-    <t>67/8114</t>
-  </si>
-  <si>
-    <t>128/8114</t>
-  </si>
-  <si>
-    <t>92/8114</t>
-  </si>
-  <si>
-    <t>282/8114</t>
-  </si>
-  <si>
-    <t>124/8114</t>
-  </si>
-  <si>
-    <t>350/8114</t>
-  </si>
-  <si>
-    <t>215/8114</t>
-  </si>
-  <si>
-    <t>199/8114</t>
-  </si>
-  <si>
-    <t>104/8114</t>
-  </si>
-  <si>
-    <t>186/8114</t>
-  </si>
-  <si>
-    <t>100/8114</t>
-  </si>
-  <si>
-    <t>72/8114</t>
-  </si>
-  <si>
-    <t>168/8114</t>
-  </si>
-  <si>
-    <t>346/8114</t>
-  </si>
-  <si>
-    <t>78/8114</t>
-  </si>
-  <si>
-    <t>252/8114</t>
-  </si>
-  <si>
-    <t>108/8114</t>
-  </si>
-  <si>
-    <t>214/8114</t>
-  </si>
-  <si>
-    <t>143/8114</t>
-  </si>
-  <si>
-    <t>136/8114</t>
-  </si>
-  <si>
-    <t>132/8114</t>
-  </si>
-  <si>
-    <t>75/8114</t>
-  </si>
-  <si>
-    <t>97/8114</t>
-  </si>
-  <si>
-    <t>59/8114</t>
-  </si>
-  <si>
-    <t>26/8114</t>
-  </si>
-  <si>
-    <t>83/8114</t>
-  </si>
-  <si>
-    <t>115/8114</t>
-  </si>
-  <si>
-    <t>69/8114</t>
-  </si>
-  <si>
-    <t>178/8114</t>
-  </si>
-  <si>
-    <t>85/8114</t>
-  </si>
-  <si>
-    <t>102/8114</t>
-  </si>
-  <si>
-    <t>213/8114</t>
-  </si>
-  <si>
-    <t>98/8114</t>
-  </si>
-  <si>
-    <t>175/8114</t>
-  </si>
-  <si>
-    <t>87/8114</t>
-  </si>
-  <si>
-    <t>154/8114</t>
-  </si>
-  <si>
-    <t>74/8114</t>
-  </si>
-  <si>
-    <t>99/8114</t>
-  </si>
-  <si>
-    <t>142/8114</t>
-  </si>
-  <si>
-    <t>31/8114</t>
-  </si>
-  <si>
-    <t>80/8114</t>
-  </si>
-  <si>
-    <t>101/8114</t>
-  </si>
-  <si>
-    <t>44/8114</t>
-  </si>
-  <si>
-    <t>130/8114</t>
-  </si>
-  <si>
-    <t>228/8114</t>
-  </si>
-  <si>
-    <t>231/8114</t>
-  </si>
-  <si>
-    <t>141/8114</t>
-  </si>
-  <si>
-    <t>170/8114</t>
-  </si>
-  <si>
-    <t>151/8114</t>
-  </si>
-  <si>
-    <t>217/8114</t>
-  </si>
-  <si>
-    <t>270/8114</t>
-  </si>
-  <si>
-    <t>37/8114</t>
-  </si>
-  <si>
-    <t>52/8114</t>
-  </si>
-  <si>
-    <t>109/8114</t>
-  </si>
-  <si>
-    <t>167/8114</t>
-  </si>
-  <si>
-    <t>66/8114</t>
-  </si>
-  <si>
-    <t>137/8114</t>
-  </si>
-  <si>
-    <t>106/8114</t>
-  </si>
-  <si>
-    <t>159/8114</t>
-  </si>
-  <si>
-    <t>147/8114</t>
-  </si>
-  <si>
-    <t>58/8114</t>
-  </si>
-  <si>
-    <t>18/8114</t>
-  </si>
-  <si>
-    <t>121/8114</t>
-  </si>
-  <si>
-    <t>28/8114</t>
-  </si>
-  <si>
-    <t>197/8114</t>
-  </si>
-  <si>
-    <t>71/8114</t>
-  </si>
-  <si>
-    <t>90/8114</t>
-  </si>
-  <si>
-    <t>76/8114</t>
-  </si>
-  <si>
-    <t>51/8114</t>
-  </si>
-  <si>
-    <t>146/8114</t>
-  </si>
-  <si>
-    <t>93/8114</t>
-  </si>
-  <si>
-    <t>139/8114</t>
-  </si>
-  <si>
-    <t>49/8114</t>
-  </si>
-  <si>
-    <t>182/8114</t>
-  </si>
-  <si>
-    <t>113/8114</t>
-  </si>
-  <si>
-    <t>195/8114</t>
-  </si>
-  <si>
-    <t>133/8114</t>
-  </si>
-  <si>
-    <t>41/8114</t>
-  </si>
-  <si>
-    <t>61/8114</t>
-  </si>
-  <si>
-    <t>169/8114</t>
-  </si>
-  <si>
-    <t>27/8114</t>
-  </si>
-  <si>
-    <t>122/8114</t>
-  </si>
-  <si>
-    <t>95/8114</t>
-  </si>
-  <si>
-    <t>88/8114</t>
-  </si>
-  <si>
-    <t>34/8114</t>
-  </si>
-  <si>
-    <t>103/8114</t>
-  </si>
-  <si>
-    <t>91/8114</t>
-  </si>
-  <si>
-    <t>48/8114</t>
-  </si>
-  <si>
-    <t>96/8114</t>
-  </si>
-  <si>
-    <t>30/8114</t>
-  </si>
-  <si>
-    <t>220/8114</t>
-  </si>
-  <si>
-    <t>89/8114</t>
-  </si>
-  <si>
-    <t>153/8114</t>
+    <t>110/2869</t>
+  </si>
+  <si>
+    <t>204/2869</t>
+  </si>
+  <si>
+    <t>117/2869</t>
+  </si>
+  <si>
+    <t>49/2869</t>
+  </si>
+  <si>
+    <t>80/2869</t>
+  </si>
+  <si>
+    <t>62/2869</t>
+  </si>
+  <si>
+    <t>150/2869</t>
+  </si>
+  <si>
+    <t>77/2869</t>
+  </si>
+  <si>
+    <t>176/2869</t>
+  </si>
+  <si>
+    <t>109/2869</t>
+  </si>
+  <si>
+    <t>65/2869</t>
+  </si>
+  <si>
+    <t>102/2869</t>
+  </si>
+  <si>
+    <t>48/2869</t>
+  </si>
+  <si>
+    <t>92/2869</t>
+  </si>
+  <si>
+    <t>168/2869</t>
+  </si>
+  <si>
+    <t>50/2869</t>
+  </si>
+  <si>
+    <t>44/2869</t>
+  </si>
+  <si>
+    <t>127/2869</t>
+  </si>
+  <si>
+    <t>63/2869</t>
+  </si>
+  <si>
+    <t>70/2869</t>
+  </si>
+  <si>
+    <t>78/2869</t>
+  </si>
+  <si>
+    <t>74/2869</t>
+  </si>
+  <si>
+    <t>71/2869</t>
+  </si>
+  <si>
+    <t>45/2869</t>
+  </si>
+  <si>
+    <t>37/2869</t>
+  </si>
+  <si>
+    <t>20/2869</t>
+  </si>
+  <si>
+    <t>43/2869</t>
+  </si>
+  <si>
+    <t>41/2869</t>
+  </si>
+  <si>
+    <t>89/2869</t>
+  </si>
+  <si>
+    <t>55/2869</t>
+  </si>
+  <si>
+    <t>53/2869</t>
+  </si>
+  <si>
+    <t>86/2869</t>
+  </si>
+  <si>
+    <t>42/2869</t>
+  </si>
+  <si>
+    <t>82/2869</t>
+  </si>
+  <si>
+    <t>21/2869</t>
+  </si>
+  <si>
+    <t>88/2869</t>
+  </si>
+  <si>
+    <t>59/2869</t>
+  </si>
+  <si>
+    <t>27/2869</t>
+  </si>
+  <si>
+    <t>105/2869</t>
+  </si>
+  <si>
+    <t>106/2869</t>
+  </si>
+  <si>
+    <t>46/2869</t>
+  </si>
+  <si>
+    <t>69/2869</t>
+  </si>
+  <si>
+    <t>73/2869</t>
+  </si>
+  <si>
+    <t>100/2869</t>
+  </si>
+  <si>
+    <t>51/2869</t>
+  </si>
+  <si>
+    <t>121/2869</t>
+  </si>
+  <si>
+    <t>23/2869</t>
+  </si>
+  <si>
+    <t>30/2869</t>
+  </si>
+  <si>
+    <t>79/2869</t>
+  </si>
+  <si>
+    <t>36/2869</t>
+  </si>
+  <si>
+    <t>66/2869</t>
+  </si>
+  <si>
+    <t>75/2869</t>
+  </si>
+  <si>
+    <t>32/2869</t>
+  </si>
+  <si>
+    <t>13/2869</t>
+  </si>
+  <si>
+    <t>90/2869</t>
+  </si>
+  <si>
+    <t>18/2869</t>
+  </si>
+  <si>
+    <t>38/2869</t>
+  </si>
+  <si>
+    <t>60/2869</t>
+  </si>
+  <si>
+    <t>52/2869</t>
+  </si>
+  <si>
+    <t>40/2869</t>
+  </si>
+  <si>
+    <t>39/2869</t>
+  </si>
+  <si>
+    <t>68/2869</t>
+  </si>
+  <si>
+    <t>28/2869</t>
+  </si>
+  <si>
+    <t>35/2869</t>
+  </si>
+  <si>
+    <t>54/2869</t>
+  </si>
+  <si>
+    <t>87/2869</t>
+  </si>
+  <si>
+    <t>31/2869</t>
+  </si>
+  <si>
+    <t>16/2869</t>
+  </si>
+  <si>
+    <t>56/2869</t>
+  </si>
+  <si>
+    <t>19/2869</t>
+  </si>
+  <si>
+    <t>25/2869</t>
+  </si>
+  <si>
+    <t>17/2869</t>
+  </si>
+  <si>
+    <t>94/2869</t>
+  </si>
+  <si>
+    <t>67/2869</t>
+  </si>
+  <si>
+    <t>183/8092</t>
+  </si>
+  <si>
+    <t>394/8092</t>
+  </si>
+  <si>
+    <t>206/8092</t>
+  </si>
+  <si>
+    <t>67/8092</t>
+  </si>
+  <si>
+    <t>128/8092</t>
+  </si>
+  <si>
+    <t>92/8092</t>
+  </si>
+  <si>
+    <t>282/8092</t>
+  </si>
+  <si>
+    <t>124/8092</t>
+  </si>
+  <si>
+    <t>350/8092</t>
+  </si>
+  <si>
+    <t>215/8092</t>
+  </si>
+  <si>
+    <t>199/8092</t>
+  </si>
+  <si>
+    <t>104/8092</t>
+  </si>
+  <si>
+    <t>186/8092</t>
+  </si>
+  <si>
+    <t>100/8092</t>
+  </si>
+  <si>
+    <t>72/8092</t>
+  </si>
+  <si>
+    <t>168/8092</t>
+  </si>
+  <si>
+    <t>346/8092</t>
+  </si>
+  <si>
+    <t>78/8092</t>
+  </si>
+  <si>
+    <t>252/8092</t>
+  </si>
+  <si>
+    <t>108/8092</t>
+  </si>
+  <si>
+    <t>214/8092</t>
+  </si>
+  <si>
+    <t>143/8092</t>
+  </si>
+  <si>
+    <t>136/8092</t>
+  </si>
+  <si>
+    <t>132/8092</t>
+  </si>
+  <si>
+    <t>75/8092</t>
+  </si>
+  <si>
+    <t>59/8092</t>
+  </si>
+  <si>
+    <t>26/8092</t>
+  </si>
+  <si>
+    <t>83/8092</t>
+  </si>
+  <si>
+    <t>115/8092</t>
+  </si>
+  <si>
+    <t>69/8092</t>
+  </si>
+  <si>
+    <t>178/8092</t>
+  </si>
+  <si>
+    <t>85/8092</t>
+  </si>
+  <si>
+    <t>102/8092</t>
+  </si>
+  <si>
+    <t>213/8092</t>
+  </si>
+  <si>
+    <t>98/8092</t>
+  </si>
+  <si>
+    <t>175/8092</t>
+  </si>
+  <si>
+    <t>87/8092</t>
+  </si>
+  <si>
+    <t>154/8092</t>
+  </si>
+  <si>
+    <t>74/8092</t>
+  </si>
+  <si>
+    <t>99/8092</t>
+  </si>
+  <si>
+    <t>142/8092</t>
+  </si>
+  <si>
+    <t>31/8092</t>
+  </si>
+  <si>
+    <t>80/8092</t>
+  </si>
+  <si>
+    <t>101/8092</t>
+  </si>
+  <si>
+    <t>44/8092</t>
+  </si>
+  <si>
+    <t>130/8092</t>
+  </si>
+  <si>
+    <t>228/8092</t>
+  </si>
+  <si>
+    <t>231/8092</t>
+  </si>
+  <si>
+    <t>141/8092</t>
+  </si>
+  <si>
+    <t>151/8092</t>
+  </si>
+  <si>
+    <t>217/8092</t>
+  </si>
+  <si>
+    <t>270/8092</t>
+  </si>
+  <si>
+    <t>37/8092</t>
+  </si>
+  <si>
+    <t>52/8092</t>
+  </si>
+  <si>
+    <t>109/8092</t>
+  </si>
+  <si>
+    <t>167/8092</t>
+  </si>
+  <si>
+    <t>105/8092</t>
+  </si>
+  <si>
+    <t>66/8092</t>
+  </si>
+  <si>
+    <t>137/8092</t>
+  </si>
+  <si>
+    <t>159/8092</t>
+  </si>
+  <si>
+    <t>147/8092</t>
+  </si>
+  <si>
+    <t>58/8092</t>
+  </si>
+  <si>
+    <t>18/8092</t>
+  </si>
+  <si>
+    <t>121/8092</t>
+  </si>
+  <si>
+    <t>197/8092</t>
+  </si>
+  <si>
+    <t>28/8092</t>
+  </si>
+  <si>
+    <t>82/8092</t>
+  </si>
+  <si>
+    <t>106/8092</t>
+  </si>
+  <si>
+    <t>71/8092</t>
+  </si>
+  <si>
+    <t>90/8092</t>
+  </si>
+  <si>
+    <t>76/8092</t>
+  </si>
+  <si>
+    <t>146/8092</t>
+  </si>
+  <si>
+    <t>51/8092</t>
+  </si>
+  <si>
+    <t>93/8092</t>
+  </si>
+  <si>
+    <t>139/8092</t>
+  </si>
+  <si>
+    <t>49/8092</t>
+  </si>
+  <si>
+    <t>182/8092</t>
+  </si>
+  <si>
+    <t>113/8092</t>
+  </si>
+  <si>
+    <t>195/8092</t>
+  </si>
+  <si>
+    <t>133/8092</t>
+  </si>
+  <si>
+    <t>41/8092</t>
+  </si>
+  <si>
+    <t>61/8092</t>
+  </si>
+  <si>
+    <t>169/8092</t>
+  </si>
+  <si>
+    <t>27/8092</t>
+  </si>
+  <si>
+    <t>122/8092</t>
+  </si>
+  <si>
+    <t>95/8092</t>
+  </si>
+  <si>
+    <t>88/8092</t>
+  </si>
+  <si>
+    <t>34/8092</t>
+  </si>
+  <si>
+    <t>103/8092</t>
+  </si>
+  <si>
+    <t>91/8092</t>
+  </si>
+  <si>
+    <t>48/8092</t>
+  </si>
+  <si>
+    <t>96/8092</t>
+  </si>
+  <si>
+    <t>30/8092</t>
+  </si>
+  <si>
+    <t>220/8092</t>
+  </si>
+  <si>
+    <t>89/8092</t>
+  </si>
+  <si>
+    <t>153/8092</t>
   </si>
   <si>
     <t>18053/209446/12444/15395/20683/214162/107986/20375/12576/14009/18505/16001/17260/12395/12048/14030/17295/12455/104156/18507/17873/11864/20181/14129/14247/15081/20185/67603/16000/17268/17246/19696/16009/15902/13207/23882/27015/18792/17869/12053/14083/12524/12394/11908/12575/21417/12978/19697/15242/16825/13198/18590/14048/16178/72949/13714/12151/22029/18510/20732/18033/18124/70122/12580/433759/16599/17355/14011/56312/16409/18791/15446/17125/11796/21813/16909/17095/11920/140780/12606/17342/80859/13197/18854/268996/22289/108829/15405/12393/27140/13876/20466/56458/545192/58208/12475/18514/17132/18627/12608/107823/17187/22059/15078/208266/235320/22290/12045/12047/12044</t>
@@ -1395,9 +1386,6 @@
     <t>16414/16402/54131/11848/16362/14281/12258/12266/12263/19697/12369/17087/16412/12362/22034/16176/16175/16159/18033/16409/66824/16179/12367/117149/75600/17874/14678/216799/12259/12262/12260/50908/21898/15900/106759/12475/16476/26416/50909/225471/266632/12632/26413/12268/317677</t>
   </si>
   <si>
-    <t>109880/12576/16151/26395/16001/12387/104156/19211/13557/242705/16000/13649/17246/18035/18792/19645/12914/56637/12575/21417/19697/21416/12675/12566/18590/12912/16178/26427/20732/18706/18176/78284/13645/54635/18033/12448/18595/16653/16150/18791/20663/94224/208647/13876/18708/56458/231991/328572/21415/12043/22059/14870/13866/26413/12443</t>
-  </si>
-  <si>
     <t>214162/270076/26433/75410/14055/110147/72947/18193/239017/74147/93747/15107/192195/69188/14056/30956/26432/74729/234407/72535/73251/231051/208043/20937/170442/233904/235626/225888/381022/110695/234135/52690/23923/107823/208266/239122/192289</t>
   </si>
   <si>
@@ -1443,6 +1431,9 @@
     <t>19353/15162/14389/26395/76709/12540/67771/22325/14129/17969/18803/12928/94176/72508/20963/18753/17909/58988/16331/19264/14130/18706/18805/18720/67916/242687/56443/11867/245880/73178/22323/22376/16332/19354/13430/22324/234779/18708/17096/11845/18754/18750/211914/20698/12632/26413/17118/18752</t>
   </si>
   <si>
+    <t>109880/12576/16151/26395/16001/12387/19211/13557/242705/16000/13649/17246/18035/19645/12914/56637/12575/19697/21416/12675/12566/18590/12912/26427/18706/18176/78284/13645/54635/18033/12448/18595/16653/16150/20663/94224/208647/18708/56458/231991/328572/21415/12043/22059/14870/13866/26413/12443</t>
+  </si>
+  <si>
     <t>22415/12444/16414/170770/21678/21803/13544/11789/68473/12387/21812/14365/18016/19053/56289/19046/22411/11799/211652/14219/103583/15902/217325/22627/64010/56217/12166/50523/22418/16475/56274/17869/22422/27373/20583/13383/56637/12005/17128/21416/93742/209456/97064/22062/22419/21679/17125/73699/12160/17127/21813/12445/241324/18787/18759/12385/21808/16798/14369/27494/15901/232157/14362/14367/319710/14633/14366/12167/22601/21676/21415/93737/11797/216033/12168/12443/20674</t>
   </si>
   <si>
@@ -1494,9 +1485,6 @@
     <t>15277/109880/16890/26395/18749/23921/16337/19062/13712/19046/12928/20528/106628/216019/17347/72508/107476/20787/19084/110095/208650/56637/58988/20411/18682/212032/64930/19246/18706/18176/13684/20104/108079/17346/19017/19079/16653/18576/110094/13685/16150/75600/19087/16332/19268/18679/12402/20663/271849/102093/18759/12703/384783/54646/107746/18708/100705/20416/56458/244416/67296/228966/105787/12702/16370/16367/14251/26413/53412</t>
   </si>
   <si>
-    <t>22415/107986/109880/21803/13544/18104/26395/15368/16001/11789/12387/21812/12048/93760/14365/56615/17295/13712/19211/17873/18024/22411/13557/18803/242705/13649/72508/23882/21752/27015/22418/19645/17869/22422/56637/12575/72057/12005/17128/93687/58988/16973/21416/14873/14859/18706/18176/14865/15234/22419/16974/16653/29861/26992/17127/21813/77044/234779/20663/271849/13197/21808/12571/14369/18708/66923/20416/14362/14367/14366/18750/21415/14862/22059/14870/26413/14867/239985/12443/83796/18752</t>
-  </si>
-  <si>
     <t>22415/20683/107986/109880/13544/26395/16001/16590/11789/12387/14365/19211/17873/18132/22411/13557/242705/13982/15214/16000/13649/67112/14257/72508/17977/14281/23882/27015/22418/21943/19645/17869/22422/15205/56637/12575/12005/93687/58988/16973/21416/18034/14169/18128/14178/18706/17979/18176/18129/13645/22419/16974/16653/14168/20663/271849/13197/14173/18131/12571/14369/12190/18708/20416/14362/14367/14366/16476/21415/22059/13866/26413/12443</t>
   </si>
   <si>
@@ -1521,15 +1509,15 @@
     <t>72058/60363/19353/18749/12540/11848/18016/19053/75723/109711/12289/66713/19878/217325/17883/56217/218518/18260/26401/17886/12737/13383/15163/12394/67268/19877/83814/21873/16412/93742/74117/18538/20779/16800/17475/54357/108079/19079/73178/22323/21872/70497/13043/22376/17698/19684/73699/17999/56332/17882/231830/235442/192786/18417/18759/16456/12638/27494/104027/224912/18754/434204/56173/72065/105787/22350/16476/67374/60595/93737/17879/76089/13866/17356/70737/12443/23828/26408/667772</t>
   </si>
   <si>
+    <t>15277/21857/12576/20848/26395/15368/16001/16337/228026/13058/11863/18803/15979/16000/216019/13649/17347/72508/15251/13614/11600/12914/22042/12575/12322/58988/19697/212032/170768/11602/18706/16194/13645/13684/18033/20104/20525/17346/17000/18597/11601/13685/234779/18787/21898/18708/18750/108058/328572/12043/13866/26413/18752</t>
+  </si>
+  <si>
     <t>107986/109880/20848/20850/26395/56289/17873/20181/13557/18803/58231/242705/13649/20851/23882/27015/19645/12575/18706/18176/13645/16653/16453/234779/20663/13197/12571/18708/56484/18750/22059/14198/13866/26413/12443/18752</t>
   </si>
   <si>
     <t>22415/11479/16600/13544/20848/26395/14186/16001/11789/12387/15903/14365/22411/22658/21386/16000/17268/15902/15904/17129/16195/12166/22418/17869/22422/56637/12005/17128/16452/76073/12151/18508/20482/18706/55994/18176/19712/13990/22419/16653/244349/17125/16453/17127/16878/51869/14173/16468/11906/14369/16323/18708/15901/14362/14367/14366/11480/12167/26416/14184/16880/11481/26413/12168/22773/20674</t>
   </si>
   <si>
-    <t>15277/21857/12576/20848/26395/15368/16001/16337/228026/13058/11863/18803/15979/16000/216019/13649/17347/72508/15251/13614/11600/12914/22042/12575/12322/58988/19697/212032/170768/11602/18706/16194/13645/13684/18033/20104/20525/17346/17000/18597/11601/13685/234779/18787/21898/18708/18750/108058/328572/12043/13866/26413/18752</t>
-  </si>
-  <si>
     <t>12444/16161/20852/16391/16197/20848/20850/15170/19116/12048/16164/16162/237313/15979/20851/14580/16195/18414/17869/12914/21832/15975/16155/15976/12575/14199/16169/18712/19255/16452/17344/20846/20844/16184/18706/16159/16194/12986/60504/16190/16186/16168/16453/16154/54721/56469/12445/16878/20663/12703/192157/17210/20847/16196/18708/13019/19247/213208/67296/12702/16880/328572/56324/14600/54607/12043/18413/12982/11761/71724/16188/12443/12983/12984/16157</t>
   </si>
   <si>
@@ -1545,18 +1533,21 @@
     <t>18053/19353/109880/26395/23921/12540/11848/17164/18803/12928/327826/73914/26406/22627/18035/170936/26401/18753/56637/20112/12322/19697/11350/22034/18706/18176/18033/22062/11857/16653/110651/16179/16150/75600/234779/20663/271849/107746/192656/18708/16923/20416/19247/12064/56484/215449/16476/26416/108058/18212/16367/12043/65020/18213/22059/266632/108960/26413/26408</t>
   </si>
   <si>
+    <t>20682/19353/109880/16890/26395/18749/11515/27222/11848/22325/19046/12289/17931/67972/11540/432530/14799/19878/14813/11430/22095/18035/14281/20191/14634/238871/15550/19013/223864/12914/11512/19877/54393/12322/19697/74055/12912/12292/381290/26427/18706/18805/18160/78284/18033/18578/80911/14812/381853/18576/11513/333329/110385/75600/11933/14678/12669/239273/18018/19354/14800/22324/11554/18166/56188/20130/208647/19218/12638/11932/18708/54611/80885/20606/14062/12064/18430/15557/208188/12288/215449/16476/231991/108058/328572/66922/19049/26413/58991/17356</t>
+  </si>
+  <si>
     <t>14423/20442/171212/78754/241391/14425/108150/212996/207839/231050/233733/14537/230145/94192/271786/272411/14426/270049</t>
   </si>
   <si>
-    <t>20682/19353/109880/16890/26395/18749/11515/27222/11848/22325/19046/12289/17931/67972/11540/432530/14799/19878/14813/11430/22095/18035/14281/20191/14634/238871/15550/19013/223864/12914/11512/19877/54393/12322/19697/74055/12912/12292/381290/26427/18706/18805/18160/78284/18033/18578/80911/14812/381853/18576/11513/333329/110385/75600/11933/14678/12669/239273/18018/19354/14800/22324/11554/18166/56188/20130/208647/19218/12638/11932/18708/54611/80885/20606/14062/12064/18430/15557/208188/12288/215449/16476/231991/108058/328572/66922/19049/26413/58991/17356</t>
-  </si>
-  <si>
     <t>16402/20391/13726/11474/12387/16398/12289/12298/16773/24052/20191/16419/12558/21416/320910/16404/16412/13346/12292/241226/16401/16410/16403/16905/24051/16399/12385/13138/12293/140723/13405/14609/12288/11472/20541/109620/21415/216033</t>
   </si>
   <si>
     <t>22371/16822/18749/11515/11848/19046/16398/14360/17931/432530/30955/19878/14674/320207/20963/107589/11512/67268/19877/14682/18797/108101/16412/54519/20619/19419/20779/18706/18441/21894/21391/16438/16439/22323/20866/12229/11513/14678/234779/16399/70839/18759/18796/16801/18708/234889/17096/238564/104709/19224/14062/14723/22320/18795/215449/19091/26416/14127/69632/26413</t>
   </si>
   <si>
+    <t>57316/103135/50912/72068/104625/12227/71701/69125/75901/18458/74108/15526/70640/24128/50911/69639/72162/66362/72587/18983/68533/13209/24127/18642/72662/218343/231464/93728/232791/319885/12226/234594/214627/22057/53621/319618/76522/225929/57259/381404/78893/66373</t>
+  </si>
+  <si>
     <t>16414/19344/21803/15507/18749/69379/109711/16776/271457/19345/16773/432530/11847/22330/14083/16774/14682/19697/18797/16177/16178/14268/226519/16782/16780/23928/16176/18706/16159/24088/18033/16409/94216/12830/12827/12367/14676/21898/21808/18796/18708/20723/18750/282663/18795/12475/16779/60595/12829/18752/12828/19349</t>
   </si>
   <si>
@@ -1572,18 +1563,15 @@
     <t>18749/16001/16337/11515/110147/16000/93759/432530/72508/11512/58988/19697/12421/12912/72674/64930/11909/26427/18706/18176/78284/13684/18033/108079/230784/19017/19079/68465/16653/13685/11513/75747/140742/208647/384783/72993/18708/56458/56484/105787/231991/16370/16367/16591/22059</t>
   </si>
   <si>
-    <t>57316/103135/50912/72068/104625/12227/71701/69125/75901/18458/74108/15526/70640/24128/50911/69639/72162/66362/72587/18983/68533/13209/24127/18642/72662/218343/231464/93728/232791/319885/12226/234594/214627/22057/53621/319618/76522/225929/57259/381404/78893/66373</t>
-  </si>
-  <si>
     <t>12390/16402/19353/76709/12540/12387/11848/67771/17295/234683/12928/22330/14083/208650/15163/16412/14268/18000/20779/18706/242687/19303/56443/11867/73178/13043/22376/13430/12402/271849/622434/12385/140580/18708/20416/52398/330662/216033/12488</t>
   </si>
   <si>
+    <t>22415/12444/19353/19015/13544/18749/11789/12387/11848/14365/22411/54612/103583/19878/72293/19056/22418/19057/17869/22422/27373/12914/56637/12005/68010/17128/93687/12322/14283/16973/18797/21416/21372/20671/81004/229658/56811/19055/26409/16348/26965/243548/22419/16974/14735/18021/17127/18018/19354/12445/208846/20437/18796/76441/14369/14362/14367/14366/18750/18795/16476/67772/108058/328572/21415/22059/12443/18752</t>
+  </si>
+  <si>
     <t>68275/21975/13870/67030/72775/19714/27015/15205/50505/56210/230484/19891/12144/245000/17350/67561/14087/330554/211651/74386/26447/208836/12190/233826/272158/104806/75764/18861</t>
   </si>
   <si>
-    <t>22415/12444/19353/19015/13544/18749/11789/12387/11848/14365/22411/54612/103583/19878/72293/19056/22418/19057/17869/22422/27373/12914/56637/12005/68010/17128/93687/12322/14283/16973/18797/21416/21372/20671/81004/229658/56811/19055/26409/16348/26965/243548/22419/16974/14735/18021/17127/18018/19354/12445/208846/20437/18796/76441/14369/14362/14367/14366/18750/18795/16476/67772/108058/328572/21415/22059/12443/18752</t>
-  </si>
-  <si>
     <t>109880/26395/18749/19046/14816/432530/14799/14813/19056/19057/223864/12914/20112/12322/14682/18797/18176/19055/16438/14812/16653/16439/110651/75600/14800/18796/108071/18750/18795/12288/215449/108058/328572/26413/18752</t>
   </si>
   <si>
@@ -1716,12 +1704,12 @@
     <t>mmu04721</t>
   </si>
   <si>
+    <t>mmu04136</t>
+  </si>
+  <si>
     <t>mmu01200</t>
   </si>
   <si>
-    <t>mmu04136</t>
-  </si>
-  <si>
     <t>mmu04120</t>
   </si>
   <si>
@@ -1740,12 +1728,12 @@
     <t>mmu04261</t>
   </si>
   <si>
+    <t>mmu05211</t>
+  </si>
+  <si>
     <t>mmu00230</t>
   </si>
   <si>
-    <t>mmu05211</t>
-  </si>
-  <si>
     <t>mmu04728</t>
   </si>
   <si>
@@ -1800,21 +1788,21 @@
     <t>mmu01040</t>
   </si>
   <si>
+    <t>mmu04146</t>
+  </si>
+  <si>
     <t>mmu00260</t>
   </si>
   <si>
-    <t>mmu04146</t>
+    <t>mmu00062</t>
+  </si>
+  <si>
+    <t>mmu03015</t>
   </si>
   <si>
     <t>mmu00010</t>
   </si>
   <si>
-    <t>mmu00062</t>
-  </si>
-  <si>
-    <t>mmu03015</t>
-  </si>
-  <si>
     <t>mmu04152</t>
   </si>
   <si>
@@ -1872,12 +1860,12 @@
     <t>Synaptic vesicle cycle</t>
   </si>
   <si>
+    <t>Autophagy - other</t>
+  </si>
+  <si>
     <t>Carbon metabolism</t>
   </si>
   <si>
-    <t>Autophagy - other</t>
-  </si>
-  <si>
     <t>Ubiquitin mediated proteolysis</t>
   </si>
   <si>
@@ -1896,12 +1884,12 @@
     <t>Adrenergic signaling in cardiomyocytes</t>
   </si>
   <si>
+    <t>Renal cell carcinoma</t>
+  </si>
+  <si>
     <t>Purine metabolism</t>
   </si>
   <si>
-    <t>Renal cell carcinoma</t>
-  </si>
-  <si>
     <t>Dopaminergic synapse</t>
   </si>
   <si>
@@ -1956,21 +1944,21 @@
     <t>Biosynthesis of unsaturated fatty acids</t>
   </si>
   <si>
+    <t>Peroxisome</t>
+  </si>
+  <si>
     <t>Glycine, serine and threonine metabolism</t>
   </si>
   <si>
-    <t>Peroxisome</t>
+    <t>Fatty acid elongation</t>
+  </si>
+  <si>
+    <t>mRNA surveillance pathway</t>
   </si>
   <si>
     <t>Glycolysis / Gluconeogenesis</t>
   </si>
   <si>
-    <t>Fatty acid elongation</t>
-  </si>
-  <si>
-    <t>mRNA surveillance pathway</t>
-  </si>
-  <si>
     <t>AMPK signaling pathway</t>
   </si>
   <si>
@@ -2001,250 +1989,244 @@
     <t>Glycosaminoglycan biosynthesis - chondroitin sulfate / dermatan sulfate</t>
   </si>
   <si>
-    <t>111/2645</t>
-  </si>
-  <si>
-    <t>103/2645</t>
-  </si>
-  <si>
-    <t>124/2645</t>
-  </si>
-  <si>
-    <t>110/2645</t>
-  </si>
-  <si>
-    <t>92/2645</t>
-  </si>
-  <si>
-    <t>36/2645</t>
-  </si>
-  <si>
-    <t>82/2645</t>
-  </si>
-  <si>
-    <t>49/2645</t>
-  </si>
-  <si>
-    <t>41/2645</t>
-  </si>
-  <si>
-    <t>67/2645</t>
-  </si>
-  <si>
-    <t>25/2645</t>
-  </si>
-  <si>
-    <t>74/2645</t>
-  </si>
-  <si>
-    <t>57/2645</t>
-  </si>
-  <si>
-    <t>19/2645</t>
-  </si>
-  <si>
-    <t>22/2645</t>
-  </si>
-  <si>
-    <t>23/2645</t>
-  </si>
-  <si>
-    <t>73/2645</t>
-  </si>
-  <si>
-    <t>84/2645</t>
-  </si>
-  <si>
-    <t>39/2645</t>
-  </si>
-  <si>
-    <t>65/2645</t>
-  </si>
-  <si>
-    <t>78/2645</t>
-  </si>
-  <si>
-    <t>24/2645</t>
-  </si>
-  <si>
-    <t>72/2645</t>
-  </si>
-  <si>
-    <t>116/2645</t>
-  </si>
-  <si>
-    <t>17/2645</t>
-  </si>
-  <si>
-    <t>16/2645</t>
-  </si>
-  <si>
-    <t>34/2645</t>
-  </si>
-  <si>
-    <t>35/2645</t>
-  </si>
-  <si>
-    <t>76/2645</t>
-  </si>
-  <si>
-    <t>44/2645</t>
-  </si>
-  <si>
-    <t>27/2645</t>
-  </si>
-  <si>
-    <t>18/2645</t>
-  </si>
-  <si>
-    <t>42/2645</t>
-  </si>
-  <si>
-    <t>53/2645</t>
-  </si>
-  <si>
-    <t>68/2645</t>
-  </si>
-  <si>
-    <t>32/2645</t>
-  </si>
-  <si>
-    <t>59/2645</t>
-  </si>
-  <si>
-    <t>46/2645</t>
-  </si>
-  <si>
-    <t>45/2645</t>
-  </si>
-  <si>
-    <t>40/2645</t>
-  </si>
-  <si>
-    <t>154/2645</t>
-  </si>
-  <si>
-    <t>33/2645</t>
-  </si>
-  <si>
-    <t>51/2645</t>
-  </si>
-  <si>
-    <t>54/2645</t>
-  </si>
-  <si>
-    <t>55/2645</t>
-  </si>
-  <si>
-    <t>31/2645</t>
-  </si>
-  <si>
-    <t>12/2645</t>
-  </si>
-  <si>
-    <t>87/2645</t>
-  </si>
-  <si>
-    <t>8/2645</t>
-  </si>
-  <si>
-    <t>56/2645</t>
-  </si>
-  <si>
-    <t>30/2645</t>
-  </si>
-  <si>
-    <t>13/2645</t>
-  </si>
-  <si>
-    <t>100/2645</t>
-  </si>
-  <si>
-    <t>88/2645</t>
-  </si>
-  <si>
-    <t>144/8114</t>
-  </si>
-  <si>
-    <t>134/8114</t>
-  </si>
-  <si>
-    <t>194/8114</t>
-  </si>
-  <si>
-    <t>46/8114</t>
-  </si>
-  <si>
-    <t>150/8114</t>
-  </si>
-  <si>
-    <t>62/8114</t>
-  </si>
-  <si>
-    <t>120/8114</t>
-  </si>
-  <si>
-    <t>32/8114</t>
-  </si>
-  <si>
-    <t>140/8114</t>
-  </si>
-  <si>
-    <t>23/8114</t>
-  </si>
-  <si>
-    <t>38/8114</t>
-  </si>
-  <si>
-    <t>77/8114</t>
-  </si>
-  <si>
-    <t>25/8114</t>
-  </si>
-  <si>
-    <t>63/8114</t>
-  </si>
-  <si>
-    <t>29/8114</t>
-  </si>
-  <si>
-    <t>86/8114</t>
-  </si>
-  <si>
-    <t>114/8114</t>
-  </si>
-  <si>
-    <t>40/8114</t>
-  </si>
-  <si>
-    <t>84/8114</t>
-  </si>
-  <si>
-    <t>126/8114</t>
-  </si>
-  <si>
-    <t>64/8114</t>
-  </si>
-  <si>
-    <t>19/8114</t>
-  </si>
-  <si>
-    <t>116/8114</t>
-  </si>
-  <si>
-    <t>11/8114</t>
-  </si>
-  <si>
-    <t>177/8114</t>
-  </si>
-  <si>
-    <t>131/8114</t>
-  </si>
-  <si>
-    <t>22/8114</t>
-  </si>
-  <si>
-    <t>20/8114</t>
+    <t>111/2633</t>
+  </si>
+  <si>
+    <t>103/2633</t>
+  </si>
+  <si>
+    <t>124/2633</t>
+  </si>
+  <si>
+    <t>110/2633</t>
+  </si>
+  <si>
+    <t>92/2633</t>
+  </si>
+  <si>
+    <t>36/2633</t>
+  </si>
+  <si>
+    <t>82/2633</t>
+  </si>
+  <si>
+    <t>49/2633</t>
+  </si>
+  <si>
+    <t>41/2633</t>
+  </si>
+  <si>
+    <t>25/2633</t>
+  </si>
+  <si>
+    <t>66/2633</t>
+  </si>
+  <si>
+    <t>74/2633</t>
+  </si>
+  <si>
+    <t>57/2633</t>
+  </si>
+  <si>
+    <t>19/2633</t>
+  </si>
+  <si>
+    <t>22/2633</t>
+  </si>
+  <si>
+    <t>23/2633</t>
+  </si>
+  <si>
+    <t>73/2633</t>
+  </si>
+  <si>
+    <t>84/2633</t>
+  </si>
+  <si>
+    <t>38/2633</t>
+  </si>
+  <si>
+    <t>65/2633</t>
+  </si>
+  <si>
+    <t>78/2633</t>
+  </si>
+  <si>
+    <t>24/2633</t>
+  </si>
+  <si>
+    <t>72/2633</t>
+  </si>
+  <si>
+    <t>116/2633</t>
+  </si>
+  <si>
+    <t>40/2633</t>
+  </si>
+  <si>
+    <t>17/2633</t>
+  </si>
+  <si>
+    <t>16/2633</t>
+  </si>
+  <si>
+    <t>34/2633</t>
+  </si>
+  <si>
+    <t>35/2633</t>
+  </si>
+  <si>
+    <t>44/2633</t>
+  </si>
+  <si>
+    <t>27/2633</t>
+  </si>
+  <si>
+    <t>18/2633</t>
+  </si>
+  <si>
+    <t>42/2633</t>
+  </si>
+  <si>
+    <t>53/2633</t>
+  </si>
+  <si>
+    <t>68/2633</t>
+  </si>
+  <si>
+    <t>32/2633</t>
+  </si>
+  <si>
+    <t>59/2633</t>
+  </si>
+  <si>
+    <t>46/2633</t>
+  </si>
+  <si>
+    <t>45/2633</t>
+  </si>
+  <si>
+    <t>154/2633</t>
+  </si>
+  <si>
+    <t>51/2633</t>
+  </si>
+  <si>
+    <t>54/2633</t>
+  </si>
+  <si>
+    <t>55/2633</t>
+  </si>
+  <si>
+    <t>31/2633</t>
+  </si>
+  <si>
+    <t>12/2633</t>
+  </si>
+  <si>
+    <t>87/2633</t>
+  </si>
+  <si>
+    <t>39/2633</t>
+  </si>
+  <si>
+    <t>8/2633</t>
+  </si>
+  <si>
+    <t>56/2633</t>
+  </si>
+  <si>
+    <t>30/2633</t>
+  </si>
+  <si>
+    <t>100/2633</t>
+  </si>
+  <si>
+    <t>13/2633</t>
+  </si>
+  <si>
+    <t>88/2633</t>
+  </si>
+  <si>
+    <t>144/8092</t>
+  </si>
+  <si>
+    <t>134/8092</t>
+  </si>
+  <si>
+    <t>194/8092</t>
+  </si>
+  <si>
+    <t>46/8092</t>
+  </si>
+  <si>
+    <t>150/8092</t>
+  </si>
+  <si>
+    <t>62/8092</t>
+  </si>
+  <si>
+    <t>32/8092</t>
+  </si>
+  <si>
+    <t>119/8092</t>
+  </si>
+  <si>
+    <t>140/8092</t>
+  </si>
+  <si>
+    <t>23/8092</t>
+  </si>
+  <si>
+    <t>38/8092</t>
+  </si>
+  <si>
+    <t>25/8092</t>
+  </si>
+  <si>
+    <t>63/8092</t>
+  </si>
+  <si>
+    <t>29/8092</t>
+  </si>
+  <si>
+    <t>86/8092</t>
+  </si>
+  <si>
+    <t>114/8092</t>
+  </si>
+  <si>
+    <t>97/8092</t>
+  </si>
+  <si>
+    <t>40/8092</t>
+  </si>
+  <si>
+    <t>126/8092</t>
+  </si>
+  <si>
+    <t>64/8092</t>
+  </si>
+  <si>
+    <t>19/8092</t>
+  </si>
+  <si>
+    <t>116/8092</t>
+  </si>
+  <si>
+    <t>11/8092</t>
+  </si>
+  <si>
+    <t>177/8092</t>
+  </si>
+  <si>
+    <t>131/8092</t>
+  </si>
+  <si>
+    <t>22/8092</t>
+  </si>
+  <si>
+    <t>20/8092</t>
   </si>
   <si>
     <t>12858/66925/21823/66108/11950/22201/69875/68198/66043/18747/68349/11951/22335/22213/67680/84682/226646/17991/12864/67126/11740/54405/12867/228033/22187/66414/75406/66594/22333/13488/67530/66945/407785/17993/22334/105675/66218/67130/66445/68194/224129/11957/28080/68202/140499/50873/78330/72900/20463/14680/67847/214084/67264/11947/11946/12869/22273/11949/227197/66495/67273/68375/66046/56228/595136/12371/57320/22223/17992/68197/70316/67003/104130/66142/11739/12857/13489/12866/66916/71679/66091/12868/67184/66725/110877/110323/66377/17995/66694/22195/14763/68342/407790/12861/66416/22272/14677/66052/66152/225887/12859/67942/13063/66576/17708/17719/17711/64704/230075/18951/12865</t>
@@ -2274,12 +2256,12 @@
     <t>11772/66144/108124/11966/20907/232910/11972/11973/11975/216227/73834/66335/11773/11984/66237/214084/12890/20910/13429/20614/12757/140919/56216/19339/114143/12889/108664/18195/12286/382018/71770/110877/22348/76252/103967/116837/67300/74325/11964/11771/20508</t>
   </si>
   <si>
-    <t>235339/66925/13807/78920/12974/67680/18648/17448/18641/17449/18293/13382/56421/66945/68263/21881/13885/20916/11429/76282/19733/21991/110460/107272/18563/14718/72141/108037/21351/97212/15926/66646/14194/12359/170718/68738/60525/11428/100678/257635/109264/11674/14719/66171/110446/67834/18746/434437/73724/68133/14751/15275/227095/110821/103988/67078/226265/75731/56451/236539/19895/14433/66052/433182/13808/18655/13806</t>
-  </si>
-  <si>
     <t>235040/56486/19052/66795/67841/56716/329015/74370/66615/77040/51897/242557/56717/74781/57436/74244/93739/75669/67526/245860/225326/56208/68118/11793/213948</t>
   </si>
   <si>
+    <t>235339/66925/13807/78920/12974/67680/18648/17448/18641/17449/18293/13382/56421/66945/68263/21881/13885/20916/11429/76282/19733/21991/110460/107272/18563/14718/72141/108037/21351/97212/15926/66646/14194/12359/170718/68738/60525/11428/100678/257635/109264/11674/14719/66171/110446/67834/18746/434437/73724/68133/14751/15275/227095/110821/103988/67078/75731/56451/236539/19895/14433/66052/433182/13808/18655/13806</t>
+  </si>
+  <si>
     <t>22201/50868/59004/22192/22213/268470/22209/12189/68729/69288/56371/216150/217342/246710/56438/17237/66053/140499/50873/71745/52563/28000/13194/74126/66156/12234/66799/99152/140629/50754/229615/56228/63958/52206/53323/56317/59008/117146/73998/76375/66894/109161/231672/22346/67921/69010/231380/21402/68999/69957/66515/75788/22195/100763/22214/56424/20438/26374/230904/70093/105193/19823/69807/56459/76980/67673/218793/140630/77891/66440/242521/93765/67923/56550</t>
   </si>
   <si>
@@ -2289,12 +2271,12 @@
     <t>16795/98388/246179/20441/53418/68273/217734/216395/74653/97884/99011/75847/268510/76898/108902/243853/14345/57370/215494</t>
   </si>
   <si>
+    <t>13002/27061/26400/19089/19358/12317/12028/67838/56085/81489/94232/70377/22213/12915/54197/15481/66530/22027/26420/12330/193670/22433/71853/13665/15519/66890/26419/13135/56438/140499/50873/15516/81500/74126/12333/18415/56812/14828/22030/66861/14827/386649/20014/56228/15502/12017/269523/63958/15467/67397/15505/57377/103963/110379/56445/56453/12955/12282/69162/21402/227619/320011/105245/218811/56424/217365/66256/230904/213539/11911/50907/26414/216197/66212/67475/12018/66245/14376/20335/15511/56550/193740</t>
+  </si>
+  <si>
     <t>67065/66420/69920/245841/78929/69241/218832/20017/74414/64424/231329/20018/20021/69833/70428/67486/66136/66491/67005/20022/20016/67710</t>
   </si>
   <si>
-    <t>13002/27061/26400/19089/19358/12317/12028/67838/56085/81489/94232/70377/22213/12915/54197/15481/66530/22027/26420/12330/193670/22433/71853/13665/15519/66890/26419/13135/56438/140499/50873/15516/81500/74126/12333/18415/56812/14828/22030/66861/14827/386649/20014/56228/15502/12017/269523/63958/15467/67397/15505/57377/103963/110379/56445/56453/12955/12282/69162/21402/227619/320011/105245/218811/56424/217365/66256/230904/213539/11911/50907/26414/216197/66212/67475/12018/66245/14376/20335/15511/56550/193740</t>
-  </si>
-  <si>
     <t>235339/66925/78920/12974/67680/17448/17449/18293/13382/104112/66945/68263/20916/11429/18563/15926/14194/170718/11428/67834/74551/56451/66052</t>
   </si>
   <si>
@@ -2304,12 +2286,12 @@
     <t>110157/20355/20359/13642/20423/13637/13643/56513/13845/12162/170758/20358/57764/107449/16886/18208/20354/19206/12325/218877/12934/73181/226251/26456/15461/107448/53972/14270/18019/22065/13636/13638/13639/20351/13841/13842/13844/18710/20346/12568/18762/231148/65254/16885/13846/243743/13848/18844/259302/70584/18479/13641/18481/140571/16728/18846/20563/18709/22068/19649/74769/270190/319713/19058/171171/22417/20361/20360/241656/18707/58220/13640/192198/20357/13837/223881/12631/20564/14677/12323/80883/20315/26417/214230</t>
   </si>
   <si>
+    <t>110157/18591/11836/11651/11652/12929/23797/21809/56438/22339/71745/20662/12015/15461/14194/18710/21802/70584/18479/18481/14388/18709/112405/23871/74769/216805/22346/26396/112407/241656/18707/67673/112406/14784/26417/109905/214230/67923</t>
+  </si>
+  <si>
     <t>66355/67065/105446/23917/18575/66420/11821/27369/12496/229589/11566/68106/69920/209558/14923/18972/104111/50773/18103/14919/66358/245841/210044/218461/104110/11514/11564/78929/18574/224129/56520/69241/18969/69745/218832/76025/18584/15452/53893/19076/108147/18582/68870/11636/20017/109674/54195/74414/64424/66401/11639/231327/231329/20018/66979/68695/20133/20021/18577/18746/54369/75686/103850/69833/12497/60596/70428/67486/66136/18605/18102/66491/67005/18971/229949/20022/18585/78801/215446/242202/23918/20016/67710/16434</t>
   </si>
   <si>
-    <t>110157/18591/11836/11651/11652/94315/12929/23797/21809/56438/22339/71745/20662/12015/15461/14194/18710/21802/70584/18479/18481/14388/18709/112405/23871/74769/216805/22346/26396/112407/241656/18707/67673/112406/14784/26417/109905/214230/67923</t>
-  </si>
-  <si>
     <t>66618/66492/67465/67959/74351/27756/68988/15481/70767/67439/72654/67332/20222/193116/20624/56215/68092/54614/71702/68816/225027/20630/225160/69192/28000/319322/21681/192170/73666/66642/53317/56031/75062/108014/68981/54633/78651/50783/55934/101943/67678/217207/66094/19656/60365/231889/20227/107686/23983/28035/27366/68011/56009/66101/15381/68479/53607/108121/20826/230596/107701/66125/20643/15511/193740</t>
   </si>
   <si>
@@ -2325,12 +2307,12 @@
     <t>216795/110157/11651/22084/20869/20111/11652/66144/11966/56032/67605/22412/11973/23797/17168/14245/13543/73834/67046/66335/14368/18607/56716/71718/20662/66237/15461/74370/67071/268933/227154/22409/26987/75425/22414/83409/18710/19744/56717/13542/22241/93735/22421/110379/66508/18709/319481/74769/216805/22420/108664/26396/12283/22417/14370/22423/277854/227743/18707/245670/268706/14371/57265/66096/11964/18751/14784/26417/72149/93897/68576/56692</t>
   </si>
   <si>
-    <t>13807/12974/18648/71776/18641/56421/21881/11429/76282/66194/109652/21991/107272/18563/56454/209027/14718/108037/21351/109900/15926/66646/69051/170718/11428/100678/257635/12035/11674/14719/67834/18746/108645/226265/236539/19895/14433/433182/13808/18655/13806</t>
-  </si>
-  <si>
     <t>234852/13855/11772/17274/14773/19158/53869/68942/72183/56513/27681/13859/12389/232910/20479/71889/216963/22088/15481/22365/268451/19159/319740/22187/54198/66201/216724/11844/54189/18806/218038/13196/11773/213990/68767/74002/30948/106952/240095/17126/13660/110355/18719/107338/208092/67588/216439/15461/15239/98366/74192/16574/13429/227700/77038/228998/12757/20404/72685/140500/18762/56433/56378/77407/20408/14183/70160/65114/73711/116733/69091/16835/69780/105513/232227/230597/18717/71770/13854/229285/230837/215445/73728/100017/68524/75608/72543/75788/103967/243621/58194/245666/194309/58220/227733/67300/74325/11840/107305/52055/11842/66700/225861/66914/11771/330192/211673/12340/14963/16572/26385/19326/68089/330319/15511/193740</t>
   </si>
   <si>
+    <t>13807/12974/18648/71776/18641/56421/21881/11429/76282/66194/109652/21991/107272/18563/56454/209027/14718/108037/21351/109900/15926/66646/69051/170718/11428/100678/257635/12035/11674/14719/67834/18746/108645/236539/19895/14433/433182/13808/18655/13806</t>
+  </si>
+  <si>
     <t>66268/327942/14756/14731/72084/14755/67292/13481/56703/433931/18700/228812/329777/276846/230801/70325/239827</t>
   </si>
   <si>
@@ -2343,9 +2325,6 @@
     <t>15115/66590/22321/27267/104458/244141/76563/22375/69955/110960/70120/224805/70223/23874/107508/226539/229487/71807/109093/107271/384281/353172/272396/67417/85305/234734/105148/68915/216443/230577/71941/69606/214580/20226/71984</t>
   </si>
   <si>
-    <t>216795/12006/110157/21414/232223/20587/11836/14871/103140/11651/50868/12028/14866/68312/11652/12567/22412/23797/23805/50493/216148/13543/70127/21809/20418/14368/83797/20662/17126/67155/12015/68214/68094/15461/22409/66447/13555/56456/22414/16842/18710/66993/56717/13542/11461/93735/83766/21802/22421/14388/18709/20586/14860/74769/20588/22420/14872/26396/22417/14370/22423/57376/18707/14863/212398/16002/14371/57265/18751/12018/14784/11465/26417/14296/26462/93897</t>
-  </si>
-  <si>
     <t>110157/11836/11651/20111/11652/18747/23797/56371/26420/104111/15519/210044/26419/104110/11514/29857/224129/268930/15516/52563/66156/67071/99152/12531/20878/18710/71890/52206/56317/59008/17120/110033/18709/18667/74769/69010/68999/69957/18707/26414/19094/14677/26417/66440</t>
   </si>
   <si>
@@ -2382,21 +2361,18 @@
     <t>235674/76267/171210/171281/56473/30049/20250/97212/56348/70025/106529/68801/57874/20249/170439/217698/30963</t>
   </si>
   <si>
+    <t>59038/224824/19298/19305/20656/235674/170789/19193/14081/18634/216739/19300/93732/56794/13850/17117/20655/67993/54683/433256/15926/12359/18633/26458/68603/18632/56273/668173/330450/67528/14712/110959/234384/26378/17855/13142/228061/26874/74043/56690</t>
+  </si>
+  <si>
     <t>110157/12313/11651/11652/18747/12915/15481/17395/12315/23797/22027/216148/104111/15519/20418/210044/104110/11514/224129/15516/20662/15461/16519/14683/12913/18710/18127/14228/17390/18709/74769/26396/12314/16524/242425/18707/18798/11911/16440/76854/14677/14784/26417/15511/193740</t>
   </si>
   <si>
     <t>14711/18648/19193/71776/11754/14431/13382/107272/11656/108037/67092/100678/257635/434437/11655/68133/76238/12183/13142/74129/236539/237940</t>
   </si>
   <si>
-    <t>59038/224824/19298/19305/20656/235674/170789/19193/14081/18634/216739/19300/93732/56794/13850/17117/20655/67993/54683/433256/15926/12359/18633/26458/68603/18632/56273/668173/330450/67528/14712/110959/234384/26378/17855/13142/228061/26874/74043/56690</t>
-  </si>
-  <si>
     <t>216795/12006/14673/12550/19016/110157/18591/21414/11836/16400/16480/11651/12447/20423/16777/12028/11652/64143/18654/17688/18747/12929/12567/56044/17686/20183/218772/17395/170758/22412/23797/15182/16775/22027/23805/26420/104111/13543/21809/15519/22031/14706/19206/210044/14165/12159/26419/14180/104110/14368/11514/56438/14167/21787/224129/15516/22339/17685/71745/20662/17126/18596/12015/22340/14632/15461/64337/22409/54354/14194/22030/19361/12156/13555/14683/22414/16842/18211/16451/19207/18710/12371/56717/14688/13542/14176/93735/14693/21802/22421/19713/233046/14183/13017/14174/14082/12826/22341/14182/13617/17390/18709/112405/23871/14697/74769/66066/16772/19395/22420/22346/14672/13144/26396/112407/14164/22417/14370/22423/13016/19217/19401/14745/20182/269608/18707/19219/18798/213498/14255/14166/11835/26414/14708/14371/57265/16576/18751/67673/14677/14172/112406/14784/20315/66197/12386/26417/14709/13063/15245/240168/14704/67923/93897</t>
   </si>
   <si>
-    <t>235339/13807/11671/18648/11670/18641/13382/56421/68263/21991/17330/72141/56752/68738/60525/58810/11669/16832/11674/18746/68401/14751/15275/12183/74551/103988/226265/14433/433182/13808/18655/16828/13806</t>
-  </si>
-  <si>
     <t>11651/11652/18747/16535/16536/23797/104111/14706/210044/12325/12647/104110/11514/224129/11423/63993/15461/64337/16519/11438/11444/12913/60613/18710/14688/14693/11441/18709/14697/110834/74769/66066/12286/14672/12326/18707/18798/11911/16515/16440/16520/243764/14708/18751/14677/12323/211480/26417/14709/14704/20508</t>
   </si>
   <si>
@@ -2412,6 +2388,9 @@
     <t>229512/19047/51792/230721/26931/56422/77305/19052/59032/26932/71978/56215/68092/68188/74320/72930/225849/21681/192170/98985/67337/24018/68991/269643/54188/94230/19826/56488/60365/19045/52432/105083/226517/326622/83410/17690/54451/19704/21770/56009/78428/70248/14853/19054</t>
   </si>
   <si>
+    <t>235339/13807/11671/18648/11670/18641/13382/56421/68263/21991/17330/72141/56752/68738/60525/58810/11669/16832/11674/18746/68401/14751/15275/12183/74551/103988/14433/433182/13808/18655/16828/13806</t>
+  </si>
+  <si>
     <t>19016/11651/22084/17274/20869/14936/11652/241113/51792/78070/67605/26931/23797/18641/19052/59032/26932/56421/15357/71978/18607/72930/225849/14104/30049/20250/18639/74370/227154/12913/18710/108099/19744/56717/269643/207565/22241/18709/74769/68401/13629/12283/20249/108097/18707/15568/74551/52432/16847/21770/19082/72149/56690/19326/19054</t>
   </si>
   <si>
@@ -2445,10 +2424,10 @@
     <t>216795/12006/21414/20423/12028/22412/23805/13543/19206/12159/14368/14632/22409/12156/22414/16842/19207/13542/93735/22421/22420/22417/14370/22423/14371/57265/16576/12018/15245/93897</t>
   </si>
   <si>
+    <t>14673/110157/18591/23939/11651/26400/19060/12297/20111/26403/11652/65964/18747/12929/56808/26407/20807/15481/18099/170758/17762/26397/12300/23797/19279/26420/26399/54377/12291/12295/19042/73086/21809/14165/26419/14180/12294/66513/239556/14167/29857/60597/26404/58226/30957/20662/18596/26412/56613/15461/67071/26921/22030/19099/12531/13537/18049/18211/16765/14176/233046/18479/14183/19259/14174/75590/14182/19417/19395/26398/71751/19058/12286/26396/14164/18218/319734/11911/14166/26414/329502/18751/19094/81905/235584/18783/12296/14172/23938/14784/381921/26417/54376/26940/109905/81904/240168/15511/56692/193740</t>
+  </si>
+  <si>
     <t>12351/98660/76257/17449/27376/14660/11931/12349/11928/74551/232975/216456/11936</t>
-  </si>
-  <si>
-    <t>14673/110157/18591/23939/11651/26400/19060/12297/20111/26403/11652/65964/18747/12929/56808/26407/20807/15481/18099/170758/17762/26397/12300/23797/19279/26420/26399/54377/12291/12295/19042/73086/21809/14165/26419/14180/12294/66513/239556/14167/29857/60597/26404/58226/30957/20662/18596/26412/56613/15461/67071/26921/22030/19099/12531/13537/18049/18211/16765/14176/233046/18479/14183/19259/14174/75590/14182/19417/19395/26398/71751/19058/12286/26396/14164/18218/319734/11911/14166/26414/329502/18751/19094/81905/235584/18783/12296/14172/23938/14784/381921/26417/54376/26940/109905/81904/240168/15511/56692/193740</t>
   </si>
   <si>
     <t>217119/218271/77590/74241/59031/100910/212898/338362/117592/53374/78923/72727</t>
@@ -2543,25 +2522,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F2" t="n">
-        <v>5.843009759733586E-12</v>
+        <v>5.804523379846875E-12</v>
       </c>
       <c r="G2" t="n">
-        <v>1.217369848387996E-9</v>
+        <v>1.2003127346248645E-9</v>
       </c>
       <c r="H2" t="n">
-        <v>6.597522888606128E-10</v>
+        <v>6.526622049546145E-10</v>
       </c>
       <c r="I2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J2" t="n">
         <v>110.0</v>
@@ -2575,25 +2554,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F3" t="n">
-        <v>8.035444543815155E-12</v>
+        <v>7.94909095778056E-12</v>
       </c>
       <c r="G3" t="n">
-        <v>1.217369848387996E-9</v>
+        <v>1.2003127346248645E-9</v>
       </c>
       <c r="H3" t="n">
-        <v>6.597522888606128E-10</v>
+        <v>6.526622049546145E-10</v>
       </c>
       <c r="I3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J3" t="n">
         <v>204.0</v>
@@ -2607,25 +2586,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F4" t="n">
-        <v>2.087020174095092E-10</v>
+        <v>2.0736181325527805E-10</v>
       </c>
       <c r="G4" t="n">
-        <v>1.9129172754448594E-8</v>
+        <v>1.8992117955668728E-8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0367034739253016E-8</v>
+        <v>1.0326840017721581E-8</v>
       </c>
       <c r="I4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J4" t="n">
         <v>117.0</v>
@@ -2639,25 +2618,25 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F5" t="n">
-        <v>3.192656850267919E-10</v>
+        <v>3.1823325442870944E-10</v>
       </c>
       <c r="G5" t="n">
-        <v>1.9129172754448594E-8</v>
+        <v>1.8992117955668728E-8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0367034739253016E-8</v>
+        <v>1.0326840017721581E-8</v>
       </c>
       <c r="I5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J5" t="n">
         <v>49.0</v>
@@ -2671,25 +2650,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F6" t="n">
-        <v>3.256214029274555E-10</v>
+        <v>3.24078329367538E-10</v>
       </c>
       <c r="G6" t="n">
-        <v>1.9129172754448594E-8</v>
+        <v>1.8992117955668728E-8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0367034739253016E-8</v>
+        <v>1.0326840017721581E-8</v>
       </c>
       <c r="I6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J6" t="n">
         <v>80.0</v>
@@ -2703,25 +2682,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F7" t="n">
-        <v>3.7879550008809095E-10</v>
+        <v>3.773268468013654E-10</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9129172754448594E-8</v>
+        <v>1.8992117955668728E-8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0367034739253016E-8</v>
+        <v>1.0326840017721581E-8</v>
       </c>
       <c r="I7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J7" t="n">
         <v>62.0</v>
@@ -2735,25 +2714,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F8" t="n">
-        <v>4.4457930638067785E-10</v>
+        <v>4.4117835958637253E-10</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9243932833335056E-8</v>
+        <v>1.903369494215493E-8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.042922884141139E-8</v>
+        <v>1.0349447232402123E-8</v>
       </c>
       <c r="I8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J8" t="n">
         <v>150.0</v>
@@ -2767,25 +2746,25 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0852977581640674E-9</v>
+        <v>1.0804315647890028E-9</v>
       </c>
       <c r="G9" t="n">
-        <v>4.110565259046405E-8</v>
+        <v>4.0786291570784853E-8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.227716450968349E-8</v>
+        <v>2.217727948777427E-8</v>
       </c>
       <c r="I9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J9" t="n">
         <v>77.0</v>
@@ -2799,25 +2778,25 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F10" t="n">
-        <v>4.4393755189772775E-9</v>
+        <v>4.4032665036853415E-9</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4945897580556833E-7</v>
+        <v>1.4775405379033036E-7</v>
       </c>
       <c r="H10" t="n">
-        <v>8.099913227607665E-8</v>
+        <v>8.03403011198729E-8</v>
       </c>
       <c r="I10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J10" t="n">
         <v>176.0</v>
@@ -2831,25 +2810,25 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F11" t="n">
-        <v>6.799250506826392E-9</v>
+        <v>6.759239617184105E-9</v>
       </c>
       <c r="G11" t="n">
-        <v>2.0601729035683969E-7</v>
+        <v>2.0412903643895996E-7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.1165085042788601E-7</v>
+        <v>1.1099382950323372E-7</v>
       </c>
       <c r="I11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J11" t="n">
         <v>117.0</v>
@@ -2863,25 +2842,25 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F12" t="n">
-        <v>1.39437470447527E-8</v>
+        <v>1.386750108845872E-8</v>
       </c>
       <c r="G12" t="n">
-        <v>3.7805277266420737E-7</v>
+        <v>3.754079539367523E-7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.0488529628492742E-7</v>
+        <v>2.041256215201581E-7</v>
       </c>
       <c r="I12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J12" t="n">
         <v>109.0</v>
@@ -2895,25 +2874,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F13" t="n">
-        <v>1.4972387036206232E-8</v>
+        <v>1.4916872341857706E-8</v>
       </c>
       <c r="G13" t="n">
-        <v>3.7805277266420737E-7</v>
+        <v>3.754079539367523E-7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.0488529628492742E-7</v>
+        <v>2.041256215201581E-7</v>
       </c>
       <c r="I13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J13" t="n">
         <v>65.0</v>
@@ -2927,25 +2906,25 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F14" t="n">
-        <v>3.755124806156028E-8</v>
+        <v>3.7361385685165943E-8</v>
       </c>
       <c r="G14" t="n">
-        <v>8.752329355886742E-7</v>
+        <v>8.679337289938549E-7</v>
       </c>
       <c r="H14" t="n">
-        <v>4.743315544618141E-7</v>
+        <v>4.7193329286525405E-7</v>
       </c>
       <c r="I14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J14" t="n">
         <v>102.0</v>
@@ -2959,25 +2938,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F15" t="n">
-        <v>4.980467095423243E-8</v>
+        <v>4.963184839841815E-8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.077915378509459E-6</v>
+        <v>1.0706298725944487E-6</v>
       </c>
       <c r="H15" t="n">
-        <v>5.8417508788423E-7</v>
+        <v>5.821479962521227E-7</v>
       </c>
       <c r="I15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J15" t="n">
         <v>62.0</v>
@@ -2991,25 +2970,25 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F16" t="n">
-        <v>6.259390529145799E-8</v>
+        <v>6.241547780196063E-8</v>
       </c>
       <c r="G16" t="n">
-        <v>1.2643968868874513E-6</v>
+        <v>1.2566316197461407E-6</v>
       </c>
       <c r="H16" t="n">
-        <v>6.852385421380664E-7</v>
+        <v>6.832852306740954E-7</v>
       </c>
       <c r="I16" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J16" t="n">
         <v>48.0</v>
@@ -3023,25 +3002,25 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F17" t="n">
-        <v>1.904935648449904E-7</v>
+        <v>1.896449452085925E-7</v>
       </c>
       <c r="G17" t="n">
-        <v>3.6074718842520057E-6</v>
+        <v>3.5795483408121833E-6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.955065533935428E-6</v>
+        <v>1.946356016614502E-6</v>
       </c>
       <c r="I17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J17" t="n">
         <v>92.0</v>
@@ -3055,25 +3034,25 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E18" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F18" t="n">
-        <v>2.193700167727937E-7</v>
+        <v>2.178566803350073E-7</v>
       </c>
       <c r="G18" t="n">
-        <v>3.693521735428576E-6</v>
+        <v>3.6708695281486423E-6</v>
       </c>
       <c r="H18" t="n">
-        <v>2.00170015885655E-6</v>
+        <v>1.9960113154102063E-6</v>
       </c>
       <c r="I18" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J18" t="n">
         <v>168.0</v>
@@ -3087,25 +3066,25 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F19" t="n">
-        <v>2.194171327977372E-7</v>
+        <v>2.1879354803534954E-7</v>
       </c>
       <c r="G19" t="n">
-        <v>3.693521735428576E-6</v>
+        <v>3.6708695281486423E-6</v>
       </c>
       <c r="H19" t="n">
-        <v>2.00170015885655E-6</v>
+        <v>1.9960113154102063E-6</v>
       </c>
       <c r="I19" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J19" t="n">
         <v>50.0</v>
@@ -3119,25 +3098,25 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F20" t="n">
-        <v>4.2649382410304956E-7</v>
+        <v>4.2541115583903924E-7</v>
       </c>
       <c r="G20" t="n">
-        <v>6.8014541422749485E-6</v>
+        <v>6.7617983717573604E-6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6860408066523953E-6</v>
+        <v>3.676683673733525E-6</v>
       </c>
       <c r="I20" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J20" t="n">
         <v>44.0</v>
@@ -3151,25 +3130,25 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F21" t="n">
-        <v>5.660208789707114E-7</v>
+        <v>5.629541311439687E-7</v>
       </c>
       <c r="G21" t="n">
-        <v>8.575216316406278E-6</v>
+        <v>8.500607380273928E-6</v>
       </c>
       <c r="H21" t="n">
-        <v>4.647329322075315E-6</v>
+        <v>4.622149708339954E-6</v>
       </c>
       <c r="I21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J21" t="n">
         <v>127.0</v>
@@ -3183,25 +3162,25 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F22" t="n">
-        <v>9.027404557655464E-7</v>
+        <v>8.998356821346798E-7</v>
       </c>
       <c r="G22" t="n">
-        <v>1.3025255147474314E-5</v>
+        <v>1.2940494095460635E-5</v>
       </c>
       <c r="H22" t="n">
-        <v>7.059023112753145E-6</v>
+        <v>7.036309093383962E-6</v>
       </c>
       <c r="I22" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J22" t="n">
         <v>63.0</v>
@@ -3215,25 +3194,25 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E23" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F23" t="n">
-        <v>1.2447022673344319E-6</v>
+        <v>1.2404315630833456E-6</v>
       </c>
       <c r="G23" t="n">
-        <v>1.7142944863742402E-5</v>
+        <v>1.7027742365962287E-5</v>
       </c>
       <c r="H23" t="n">
-        <v>9.29060065570198E-6</v>
+        <v>9.258723628756073E-6</v>
       </c>
       <c r="I23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J23" t="n">
         <v>70.0</v>
@@ -3247,25 +3226,25 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E24" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F24" t="n">
-        <v>1.8746264878835185E-6</v>
+        <v>1.865946790562743E-6</v>
       </c>
       <c r="G24" t="n">
-        <v>2.469616634037853E-5</v>
+        <v>2.4500692641302104E-5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.3384060966124892E-5</v>
+        <v>1.3322091502415923E-5</v>
       </c>
       <c r="I24" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J24" t="n">
         <v>109.0</v>
@@ -3279,25 +3258,25 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F25" t="n">
-        <v>1.9832447294827582E-6</v>
+        <v>1.976021078185618E-6</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5038464709719822E-5</v>
+        <v>2.4864931900502364E-5</v>
       </c>
       <c r="H25" t="n">
-        <v>1.3569569201724135E-5</v>
+        <v>1.3520144219164755E-5</v>
       </c>
       <c r="I25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J25" t="n">
         <v>78.0</v>
@@ -3311,25 +3290,25 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F26" t="n">
-        <v>2.3328483595717105E-6</v>
+        <v>2.3256714465536898E-6</v>
       </c>
       <c r="G26" t="n">
-        <v>2.827412211800913E-5</v>
+        <v>2.8094111074368574E-5</v>
       </c>
       <c r="H26" t="n">
-        <v>1.5323130277607867E-5</v>
+        <v>1.5275989291047393E-5</v>
       </c>
       <c r="I26" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J26" t="n">
         <v>62.0</v>
@@ -3343,25 +3322,25 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F27" t="n">
-        <v>4.076081589026116E-6</v>
+        <v>4.062175344520813E-6</v>
       </c>
       <c r="G27" t="n">
-        <v>4.7502027749035126E-5</v>
+        <v>4.718372900174175E-5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.5743673193849157E-5</v>
+        <v>2.5655844281184082E-5</v>
       </c>
       <c r="I27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J27" t="n">
         <v>74.0</v>
@@ -3375,25 +3354,25 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0871631035796404E-5</v>
+        <v>1.0837055157982473E-5</v>
       </c>
       <c r="G28" t="n">
-        <v>1.220038594017152E-4</v>
+        <v>1.2121446880410026E-4</v>
       </c>
       <c r="H28" t="n">
-        <v>6.61198612703407E-5</v>
+        <v>6.590957522983492E-5</v>
       </c>
       <c r="I28" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J28" t="n">
         <v>71.0</v>
@@ -3407,25 +3386,25 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F29" t="n">
-        <v>1.1794958078350146E-5</v>
+        <v>1.1767749323222062E-5</v>
       </c>
       <c r="G29" t="n">
-        <v>1.2763829634786052E-4</v>
+        <v>1.2692358198618082E-4</v>
       </c>
       <c r="H29" t="n">
-        <v>6.917343835423394E-5</v>
+        <v>6.90138682113775E-5</v>
       </c>
       <c r="I29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J29" t="n">
         <v>45.0</v>
@@ -3439,28 +3418,28 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F30" t="n">
-        <v>1.4182406780831098E-5</v>
+        <v>1.7285242314241858E-5</v>
       </c>
       <c r="G30" t="n">
-        <v>1.481816984342008E-4</v>
+        <v>1.8000493720348416E-4</v>
       </c>
       <c r="H30" t="n">
-        <v>8.030691316913436E-5</v>
+        <v>9.787650820405554E-5</v>
       </c>
       <c r="I30" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J30" t="n">
-        <v>55.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="31">
@@ -3471,28 +3450,28 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E31" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F31" t="n">
-        <v>1.731953210330159E-5</v>
+        <v>1.8755056256136857E-5</v>
       </c>
       <c r="G31" t="n">
-        <v>1.7492727424334606E-4</v>
+        <v>1.8880089964511102E-4</v>
       </c>
       <c r="H31" t="n">
-        <v>9.480164940754555E-5</v>
+        <v>1.0265925529674912E-4</v>
       </c>
       <c r="I31" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J31" t="n">
-        <v>37.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="32">
@@ -3503,28 +3482,28 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E32" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="F32" t="n">
-        <v>1.8778811322516947E-5</v>
+        <v>2.1565673971471278E-5</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8354773647492369E-4</v>
+        <v>2.1009140449626857E-4</v>
       </c>
       <c r="H32" t="n">
-        <v>9.947349970501337E-5</v>
+        <v>1.1423582816806518E-4</v>
       </c>
       <c r="I32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J32" t="n">
-        <v>20.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="33">
@@ -3535,28 +3514,28 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E33" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F33" t="n">
-        <v>2.1612788041008427E-5</v>
+        <v>2.4293276807853412E-5</v>
       </c>
       <c r="G33" t="n">
-        <v>2.0464608676329854E-4</v>
+        <v>2.2926779987411658E-4</v>
       </c>
       <c r="H33" t="n">
-        <v>1.1090772810517483E-4</v>
+        <v>1.246628678297741E-4</v>
       </c>
       <c r="I33" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J33" t="n">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="34">
@@ -3567,28 +3546,28 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E34" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F34" t="n">
-        <v>2.4350277431731904E-5</v>
+        <v>3.233550971929064E-5</v>
       </c>
       <c r="G34" t="n">
-        <v>2.2357982005499294E-4</v>
+        <v>2.9591890712805377E-4</v>
       </c>
       <c r="H34" t="n">
-        <v>1.2116884463636929E-4</v>
+        <v>1.6090397180891036E-4</v>
       </c>
       <c r="I34" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J34" t="n">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="35">
@@ -3599,28 +3578,28 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F35" t="n">
-        <v>3.240604150496863E-5</v>
+        <v>3.5128943162961556E-5</v>
       </c>
       <c r="G35" t="n">
-        <v>2.887950169413381E-4</v>
+        <v>3.120276716239527E-4</v>
       </c>
       <c r="H35" t="n">
-        <v>1.5651215092182995E-4</v>
+        <v>1.696630072266874E-4</v>
       </c>
       <c r="I35" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J35" t="n">
-        <v>44.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="36">
@@ -3631,28 +3610,28 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F36" t="n">
-        <v>3.522559773288268E-5</v>
+        <v>3.945340701304053E-5</v>
       </c>
       <c r="G36" t="n">
-        <v>3.049530318018129E-4</v>
+        <v>3.322904206911795E-4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.6526896981442705E-4</v>
+        <v>1.8068074460726385E-4</v>
       </c>
       <c r="I36" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J36" t="n">
-        <v>62.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="37">
@@ -3663,28 +3642,28 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E37" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F37" t="n">
-        <v>3.95346311675229E-5</v>
+        <v>4.028032541715463E-5</v>
       </c>
       <c r="G37" t="n">
-        <v>3.255900590124326E-4</v>
+        <v>3.322904206911795E-4</v>
       </c>
       <c r="H37" t="n">
-        <v>1.7645318466541423E-4</v>
+        <v>1.8068074460726385E-4</v>
       </c>
       <c r="I37" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J37" t="n">
-        <v>41.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="38">
@@ -3695,28 +3674,28 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F38" t="n">
-        <v>4.042127876111726E-5</v>
+        <v>4.07110780317008E-5</v>
       </c>
       <c r="G38" t="n">
-        <v>3.255900590124326E-4</v>
+        <v>3.322904206911795E-4</v>
       </c>
       <c r="H38" t="n">
-        <v>1.7645318466541423E-4</v>
+        <v>1.8068074460726385E-4</v>
       </c>
       <c r="I38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J38" t="n">
-        <v>89.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="39">
@@ -3727,28 +3706,28 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F39" t="n">
-        <v>4.0833076707829826E-5</v>
+        <v>5.655723954002073E-5</v>
       </c>
       <c r="G39" t="n">
-        <v>3.255900590124326E-4</v>
+        <v>4.4948121950227E-4</v>
       </c>
       <c r="H39" t="n">
-        <v>1.7645318466541423E-4</v>
+        <v>2.4440247557460477E-4</v>
       </c>
       <c r="I39" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J39" t="n">
-        <v>71.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="40">
@@ -3759,28 +3738,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="E40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F40" t="n">
-        <v>5.6684855598072414E-5</v>
+        <v>9.499529393459252E-5</v>
       </c>
       <c r="G40" t="n">
-        <v>4.403977242619472E-4</v>
+        <v>7.356045838012036E-4</v>
       </c>
       <c r="H40" t="n">
-        <v>2.3867307620241017E-4</v>
+        <v>3.99980184987758E-4</v>
       </c>
       <c r="I40" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J40" t="n">
-        <v>48.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="41">
@@ -3791,28 +3770,28 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E41" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F41" t="n">
-        <v>9.522428753283913E-5</v>
+        <v>1.0576393931286613E-4</v>
       </c>
       <c r="G41" t="n">
-        <v>7.213239780612564E-4</v>
+        <v>7.985177418121393E-4</v>
       </c>
       <c r="H41" t="n">
-        <v>3.9092075934533965E-4</v>
+        <v>4.341888034949242E-4</v>
       </c>
       <c r="I41" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J41" t="n">
-        <v>55.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="42">
@@ -3823,28 +3802,28 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="E42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0614838510084267E-4</v>
+        <v>1.1417070050458717E-4</v>
       </c>
       <c r="G42" t="n">
-        <v>7.84462455745252E-4</v>
+        <v>8.409646720093982E-4</v>
       </c>
       <c r="H42" t="n">
-        <v>4.251385898775727E-4</v>
+        <v>4.5726904438294215E-4</v>
       </c>
       <c r="I42" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J42" t="n">
-        <v>102.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="43">
@@ -3855,28 +3834,28 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E43" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F43" t="n">
-        <v>1.1443647291067025E-4</v>
+        <v>1.1838630088642218E-4</v>
       </c>
       <c r="G43" t="n">
-        <v>8.255774117126924E-4</v>
+        <v>8.51253877802369E-4</v>
       </c>
       <c r="H43" t="n">
-        <v>4.474207963424702E-4</v>
+        <v>4.6286373278901907E-4</v>
       </c>
       <c r="I43" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J43" t="n">
-        <v>53.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="44">
@@ -3887,28 +3866,28 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="E44" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F44" t="n">
-        <v>1.187671816965286E-4</v>
+        <v>1.2411407683522705E-4</v>
       </c>
       <c r="G44" t="n">
-        <v>8.368943268383294E-4</v>
+        <v>8.51873891005422E-4</v>
       </c>
       <c r="H44" t="n">
-        <v>4.5355398640534796E-4</v>
+        <v>4.632008609161584E-4</v>
       </c>
       <c r="I44" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J44" t="n">
-        <v>86.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="45">
@@ -3919,25 +3898,25 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E45" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F45" t="n">
-        <v>1.243830937877176E-4</v>
+        <v>1.2411407683522705E-4</v>
       </c>
       <c r="G45" t="n">
-        <v>8.565472140381463E-4</v>
+        <v>8.51873891005422E-4</v>
       </c>
       <c r="H45" t="n">
-        <v>4.6420484762880256E-4</v>
+        <v>4.632008609161584E-4</v>
       </c>
       <c r="I45" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="J45" t="n">
         <v>48.0</v>
@@ -3951,25 +3930,25 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E46" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F46" t="n">
-        <v>1.3086091613288896E-4</v>
+        <v>1.3047346916626466E-4</v>
       </c>
       <c r="G46" t="n">
-        <v>8.81130168628119E-4</v>
+        <v>8.756219486269317E-4</v>
       </c>
       <c r="H46" t="n">
-        <v>4.7752755360773517E-4</v>
+        <v>4.761137120453167E-4</v>
       </c>
       <c r="I46" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J46" t="n">
         <v>77.0</v>
@@ -3983,25 +3962,25 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E47" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F47" t="n">
-        <v>1.392667520719487E-4</v>
+        <v>1.389931480034518E-4</v>
       </c>
       <c r="G47" t="n">
-        <v>9.17344040821749E-4</v>
+        <v>9.125202325444009E-4</v>
       </c>
       <c r="H47" t="n">
-        <v>4.971536229570709E-4</v>
+        <v>4.961769127812009E-4</v>
       </c>
       <c r="I47" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J47" t="n">
         <v>42.0</v>
@@ -4015,25 +3994,25 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E48" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F48" t="n">
-        <v>1.5093582399531094E-4</v>
+        <v>1.5064532650444016E-4</v>
       </c>
       <c r="G48" t="n">
-        <v>9.730543546931748E-4</v>
+        <v>9.679763532838496E-4</v>
       </c>
       <c r="H48" t="n">
-        <v>5.273457680463272E-4</v>
+        <v>5.263308160065546E-4</v>
       </c>
       <c r="I48" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J48" t="n">
         <v>41.0</v>
@@ -4047,25 +4026,25 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E49" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F49" t="n">
-        <v>1.622804014467643E-4</v>
+        <v>1.6191075065233318E-4</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0010243950341326997</v>
+        <v>0.001018688472854263</v>
       </c>
       <c r="H49" t="n">
-        <v>5.551697944231411E-4</v>
+        <v>5.539051996000872E-4</v>
       </c>
       <c r="I49" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J49" t="n">
         <v>53.0</v>
@@ -4079,25 +4058,25 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E50" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F50" t="n">
-        <v>2.2540624545474034E-4</v>
+        <v>2.2473326655810143E-4</v>
       </c>
       <c r="G50" t="n">
-        <v>0.001393838619852782</v>
+        <v>0.001385090744909115</v>
       </c>
       <c r="H50" t="n">
-        <v>7.553893510405906E-4</v>
+        <v>7.531340404524989E-4</v>
       </c>
       <c r="I50" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J50" t="n">
         <v>82.0</v>
@@ -4111,25 +4090,25 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E51" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F51" t="n">
-        <v>2.3571537470444952E-4</v>
+        <v>2.3507757063493239E-4</v>
       </c>
       <c r="G51" t="n">
-        <v>0.001428435170708964</v>
+        <v>0.0014198685266349916</v>
       </c>
       <c r="H51" t="n">
-        <v>7.741389148188236E-4</v>
+        <v>7.720442319799884E-4</v>
       </c>
       <c r="I51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J51" t="n">
         <v>71.0</v>
@@ -4143,25 +4122,25 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E52" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F52" t="n">
-        <v>2.493252980081444E-4</v>
+        <v>2.490297826106449E-4</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0014775856595198693</v>
+        <v>0.0014698248746950811</v>
       </c>
       <c r="H52" t="n">
-        <v>8.007759697241606E-4</v>
+        <v>7.992076697540351E-4</v>
       </c>
       <c r="I52" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J52" t="n">
         <v>21.0</v>
@@ -4175,25 +4154,25 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D53" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E53" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F53" t="n">
-        <v>2.5835563217733895E-4</v>
+        <v>2.575544325971664E-4</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0014775856595198693</v>
+        <v>0.0014698248746950811</v>
       </c>
       <c r="H53" t="n">
-        <v>8.007759697241606E-4</v>
+        <v>7.992076697540351E-4</v>
       </c>
       <c r="I53" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J53" t="n">
         <v>88.0</v>
@@ -4207,25 +4186,25 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E54" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F54" t="n">
-        <v>2.584555774077659E-4</v>
+        <v>2.57949398539203E-4</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0014775856595198693</v>
+        <v>0.0014698248746950811</v>
       </c>
       <c r="H54" t="n">
-        <v>8.007759697241606E-4</v>
+        <v>7.992076697540351E-4</v>
       </c>
       <c r="I54" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J54" t="n">
         <v>44.0</v>
@@ -4239,25 +4218,25 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E55" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F55" t="n">
-        <v>3.156120914336732E-4</v>
+        <v>3.149210766501849E-4</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0017709345130444995</v>
+        <v>0.0017612252805251083</v>
       </c>
       <c r="H55" t="n">
-        <v>9.597560675176027E-4</v>
+        <v>9.576547360122583E-4</v>
       </c>
       <c r="I55" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J55" t="n">
         <v>53.0</v>
@@ -4271,25 +4250,25 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E56" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F56" t="n">
-        <v>3.270958135961205E-4</v>
+        <v>3.263288413855653E-4</v>
       </c>
       <c r="G56" t="n">
-        <v>0.001802000573084082</v>
+        <v>0.0017918420017898314</v>
       </c>
       <c r="H56" t="n">
-        <v>9.765922855692784E-4</v>
+        <v>9.743023781080993E-4</v>
       </c>
       <c r="I56" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J56" t="n">
         <v>59.0</v>
@@ -4303,25 +4282,25 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F57" t="n">
-        <v>3.968972236927585E-4</v>
+        <v>3.963509227669112E-4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0021474974781947468</v>
+        <v>0.002137463904921557</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0011638339642118484</v>
+        <v>0.0011622320291661305</v>
       </c>
       <c r="I57" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J57" t="n">
         <v>27.0</v>
@@ -4335,25 +4314,25 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E58" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F58" t="n">
-        <v>4.251334639745343E-4</v>
+        <v>4.2408921124595345E-4</v>
       </c>
       <c r="G58" t="n">
-        <v>0.002259919992706735</v>
+        <v>0.0022469288034434724</v>
       </c>
       <c r="H58" t="n">
-        <v>0.001224761225854614</v>
+        <v>0.001221752852342913</v>
       </c>
       <c r="I58" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J58" t="n">
         <v>65.0</v>
@@ -4367,25 +4346,25 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E59" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F59" t="n">
-        <v>5.351611138424728E-4</v>
+        <v>5.333896840785491E-4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0027957554740391253</v>
+        <v>0.0027773049067538248</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0015151566925485618</v>
+        <v>0.001510141392309504</v>
       </c>
       <c r="I59" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J59" t="n">
         <v>105.0</v>
@@ -4399,25 +4378,25 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F60" t="n">
-        <v>5.921813292852027E-4</v>
+        <v>5.902240389024877E-4</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0030412024198884138</v>
+        <v>0.003021146775399174</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0016481764026492708</v>
+        <v>0.0016427288147865848</v>
       </c>
       <c r="I60" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J60" t="n">
         <v>106.0</v>
@@ -4431,25 +4410,25 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E61" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F61" t="n">
-        <v>6.181820172349722E-4</v>
+        <v>6.170014891800726E-4</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0031139575632745746</v>
+        <v>0.0030959660289537785</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0016876059748856477</v>
+        <v>0.001683411294934784</v>
       </c>
       <c r="I61" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J61" t="n">
         <v>46.0</v>
@@ -4463,25 +4442,25 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E62" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F62" t="n">
-        <v>6.26902347721944E-4</v>
+        <v>6.253441316760944E-4</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0031139575632745746</v>
+        <v>0.0030959660289537785</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0016876059748856477</v>
+        <v>0.001683411294934784</v>
       </c>
       <c r="I62" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J62" t="n">
         <v>69.0</v>
@@ -4495,28 +4474,28 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E63" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F63" t="n">
-        <v>6.385666211097963E-4</v>
+        <v>6.896626680368165E-4</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0031207368741333593</v>
+        <v>0.003338092008899276</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0016912800151634674</v>
+        <v>0.0018150657141453017</v>
       </c>
       <c r="I63" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J63" t="n">
-        <v>81.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="64">
@@ -4527,28 +4506,28 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E64" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F64" t="n">
-        <v>6.914327291906402E-4</v>
+        <v>6.963569422538225E-4</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0033072020501360515</v>
+        <v>0.003338092008899276</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0017923346181039572</v>
+        <v>0.0018150657141453017</v>
       </c>
       <c r="I64" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J64" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="65">
@@ -4559,28 +4538,28 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E65" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="F65" t="n">
-        <v>6.985509280815422E-4</v>
+        <v>7.144429966919358E-4</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0033072020501360515</v>
+        <v>0.0033712778906400723</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0017923346181039572</v>
+        <v>0.0018331103204595723</v>
       </c>
       <c r="I65" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J65" t="n">
-        <v>100.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="66">
@@ -4591,28 +4570,28 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E66" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F66" t="n">
-        <v>7.158907469015075E-4</v>
+        <v>7.84972642915066E-4</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0033371522509408735</v>
+        <v>0.0036471036640053837</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0018085660974353874</v>
+        <v>0.0019830887821012198</v>
       </c>
       <c r="I66" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J66" t="n">
-        <v>51.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="67">
@@ -4623,28 +4602,28 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E67" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F67" t="n">
-        <v>7.877498344305858E-4</v>
+        <v>8.204968547376458E-4</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0036164878762495077</v>
+        <v>0.0037543946989510462</v>
       </c>
       <c r="H67" t="n">
-        <v>0.001959951741167008</v>
+        <v>0.0020414275811654345</v>
       </c>
       <c r="I67" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J67" t="n">
-        <v>121.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="68">
@@ -4655,28 +4634,28 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E68" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F68" t="n">
-        <v>8.214693954123924E-4</v>
+        <v>8.45525287373824E-4</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0037150033852232076</v>
+        <v>0.0038111736833864904</v>
       </c>
       <c r="H68" t="n">
-        <v>0.002013342116014662</v>
+        <v>0.0020723007828800715</v>
       </c>
       <c r="I68" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J68" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="69">
@@ -4687,28 +4666,28 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="E69" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F69" t="n">
-        <v>8.467205912407514E-4</v>
+        <v>8.632568206588173E-4</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0037728873403815835</v>
+        <v>0.003833875879984748</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0020447122636773566</v>
+        <v>0.0020846449539129335</v>
       </c>
       <c r="I69" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J69" t="n">
-        <v>30.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="70">
@@ -4719,28 +4698,28 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="E70" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F70" t="n">
-        <v>8.650694277146116E-4</v>
+        <v>9.638364657441757E-4</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0037987831390945987</v>
+        <v>0.004218530618184653</v>
       </c>
       <c r="H70" t="n">
-        <v>0.002058746464126307</v>
+        <v>0.002293798453944949</v>
       </c>
       <c r="I70" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J70" t="n">
-        <v>55.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="71">
@@ -4751,28 +4730,28 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="E71" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F71" t="n">
-        <v>9.663744209536947E-4</v>
+        <v>0.0010522621418627104</v>
       </c>
       <c r="G71" t="n">
-        <v>0.004183020707842421</v>
+        <v>0.004539759526321979</v>
       </c>
       <c r="H71" t="n">
-        <v>0.00226698360404175</v>
+        <v>0.002468464573392223</v>
       </c>
       <c r="I71" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J71" t="n">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="72">
@@ -4783,25 +4762,25 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E72" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0011221442071166876</v>
+        <v>0.001120392059932016</v>
       </c>
       <c r="G72" t="n">
-        <v>0.004788868940230371</v>
+        <v>0.004765611297175617</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0025953224063781062</v>
+        <v>0.0025912699977671534</v>
       </c>
       <c r="I72" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J72" t="n">
         <v>36.0</v>
@@ -4815,25 +4794,25 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E73" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0013687715200417841</v>
+        <v>0.0013656583831324067</v>
       </c>
       <c r="G73" t="n">
-        <v>0.005760246813509174</v>
+        <v>0.005728178218138706</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0031217596071128413</v>
+        <v>0.00311465947030198</v>
       </c>
       <c r="I73" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J73" t="n">
         <v>66.0</v>
@@ -4847,28 +4826,28 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E74" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0013915987479543722</v>
+        <v>0.0014138530055416956</v>
       </c>
       <c r="G74" t="n">
-        <v>0.005776087953838011</v>
+        <v>0.005849090516076604</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0031303446961915226</v>
+        <v>0.0031804047420981186</v>
       </c>
       <c r="I74" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J74" t="n">
-        <v>53.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="75">
@@ -4879,28 +4858,28 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="E75" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0014173421014898704</v>
+        <v>0.0014694331550409727</v>
       </c>
       <c r="G75" t="n">
-        <v>0.005803441307451767</v>
+        <v>0.005996875848950996</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0031451688169618747</v>
+        <v>0.00326076205101553</v>
       </c>
       <c r="I75" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J75" t="n">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="76">
@@ -4911,28 +4890,28 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="E76" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001472890913314316</v>
+        <v>0.0016155039376472657</v>
       </c>
       <c r="G76" t="n">
-        <v>0.005950479289789837</v>
+        <v>0.006480241374972137</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0032248558944145025</v>
+        <v>0.0035235888968130125</v>
       </c>
       <c r="I76" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J76" t="n">
-        <v>70.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="77">
@@ -4943,28 +4922,28 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D77" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E77" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0016177822686994465</v>
+        <v>0.0016307892201916636</v>
       </c>
       <c r="G77" t="n">
-        <v>0.006422188837398657</v>
+        <v>0.006480241374972137</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0034804983798304347</v>
+        <v>0.0035235888968130125</v>
       </c>
       <c r="I77" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J77" t="n">
-        <v>32.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="78">
@@ -4975,28 +4954,28 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E78" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F78" t="n">
-        <v>0.001632041387721771</v>
+        <v>0.0016726008768754774</v>
       </c>
       <c r="G78" t="n">
-        <v>0.006422188837398657</v>
+        <v>0.006560070971641483</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0034804983798304347</v>
+        <v>0.0035669957182853655</v>
       </c>
       <c r="I78" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J78" t="n">
-        <v>13.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="79">
@@ -5007,28 +4986,28 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="E79" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0016760901343979328</v>
+        <v>0.001747307317141496</v>
       </c>
       <c r="G79" t="n">
-        <v>0.006510965522084277</v>
+        <v>0.006687441969318488</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0035286108092588055</v>
+        <v>0.0036362528658545985</v>
       </c>
       <c r="I79" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J79" t="n">
-        <v>59.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="80">
@@ -5039,25 +5018,25 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E80" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0017510388755403027</v>
+        <v>0.0017493639588614589</v>
       </c>
       <c r="G80" t="n">
-        <v>0.006635955280346552</v>
+        <v>0.006687441969318488</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0035963488752268962</v>
+        <v>0.0036362528658545985</v>
       </c>
       <c r="I80" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J80" t="n">
         <v>18.0</v>
@@ -5071,28 +5050,28 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D81" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E81" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="F81" t="n">
-        <v>0.001752067400751565</v>
+        <v>0.0018607496691547627</v>
       </c>
       <c r="G81" t="n">
-        <v>0.006635955280346552</v>
+        <v>0.007024330001059229</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0035963488752268962</v>
+        <v>0.003819433531422934</v>
       </c>
       <c r="I81" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J81" t="n">
-        <v>90.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="82">
@@ -5103,28 +5082,28 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E82" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0018636514724166913</v>
+        <v>0.0019362684274520851</v>
       </c>
       <c r="G82" t="n">
-        <v>0.006971436989410587</v>
+        <v>0.00721917364309296</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0037781628290708756</v>
+        <v>0.003925378488401889</v>
       </c>
       <c r="I82" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J82" t="n">
-        <v>38.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="83">
@@ -5135,28 +5114,28 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D83" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="E83" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="F83" t="n">
-        <v>0.001940301133060712</v>
+        <v>0.00234977502459169</v>
       </c>
       <c r="G83" t="n">
-        <v>0.007169649308748729</v>
+        <v>0.008654049480813298</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0038855837837929535</v>
+        <v>0.0047055828477060805</v>
       </c>
       <c r="I83" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J83" t="n">
-        <v>60.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="84">
@@ -5167,25 +5146,25 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D84" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E84" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0026062750810378022</v>
+        <v>0.0026014544481015693</v>
       </c>
       <c r="G84" t="n">
-        <v>0.00951447409101752</v>
+        <v>0.009465533052128602</v>
       </c>
       <c r="H84" t="n">
-        <v>0.005156359069649933</v>
+        <v>0.005146821736256751</v>
       </c>
       <c r="I84" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J84" t="n">
         <v>52.0</v>
@@ -5199,25 +5178,25 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E85" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002843826686723639</v>
+        <v>0.0028396214438079492</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01012362211663568</v>
+        <v>0.010074544478602853</v>
       </c>
       <c r="H85" t="n">
-        <v>0.005486486191402349</v>
+        <v>0.005477967719282137</v>
       </c>
       <c r="I85" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J85" t="n">
         <v>37.0</v>
@@ -5231,25 +5210,25 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D86" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E86" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002853472556424407</v>
+        <v>0.0028488310508150002</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01012362211663568</v>
+        <v>0.010074544478602853</v>
       </c>
       <c r="H86" t="n">
-        <v>0.005486486191402349</v>
+        <v>0.005477967719282137</v>
       </c>
       <c r="I86" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J86" t="n">
         <v>43.0</v>
@@ -5263,25 +5242,25 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E87" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F87" t="n">
-        <v>0.002873371293830589</v>
+        <v>0.0028689100170855805</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01012362211663568</v>
+        <v>0.010074544478602853</v>
       </c>
       <c r="H87" t="n">
-        <v>0.005486486191402349</v>
+        <v>0.005477967719282137</v>
       </c>
       <c r="I87" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J87" t="n">
         <v>40.0</v>
@@ -5295,25 +5274,25 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D88" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E88" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0030906991787771868</v>
+        <v>0.003085561211315988</v>
       </c>
       <c r="G88" t="n">
-        <v>0.010764159208844685</v>
+        <v>0.010710798687556648</v>
       </c>
       <c r="H88" t="n">
-        <v>0.005833624584261842</v>
+        <v>0.005823926787238889</v>
       </c>
       <c r="I88" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J88" t="n">
         <v>45.0</v>
@@ -5327,28 +5306,28 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="E89" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003154380108844157</v>
+        <v>0.0031706622183535053</v>
       </c>
       <c r="G89" t="n">
-        <v>0.010810875992168113</v>
+        <v>0.010881136249349528</v>
       </c>
       <c r="H89" t="n">
-        <v>0.00585894269507808</v>
+        <v>0.005916546723243383</v>
       </c>
       <c r="I89" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J89" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="90">
@@ -5359,28 +5338,28 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D90" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E90" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0031754718260823826</v>
+        <v>0.003408186071734107</v>
       </c>
       <c r="G90" t="n">
-        <v>0.010810875992168113</v>
+        <v>0.011445643022863673</v>
       </c>
       <c r="H90" t="n">
-        <v>0.00585894269507808</v>
+        <v>0.006223493592076448</v>
       </c>
       <c r="I90" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J90" t="n">
-        <v>39.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="91">
@@ -5391,25 +5370,25 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E91" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0034151132106457413</v>
+        <v>0.003410953218734207</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01137243522295589</v>
+        <v>0.011445643022863673</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0061632791203096015</v>
+        <v>0.006223493592076448</v>
       </c>
       <c r="I91" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J91" t="n">
         <v>28.0</v>
@@ -5423,28 +5402,28 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D92" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E92" t="s">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0034154838458382375</v>
+        <v>0.0034627623687879796</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01137243522295589</v>
+        <v>0.011491804784329339</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0061632791203096015</v>
+        <v>0.006248593748188836</v>
       </c>
       <c r="I92" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J92" t="n">
-        <v>68.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="93">
@@ -5455,28 +5434,28 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D93" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E93" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F93" t="n">
-        <v>0.003467627754136288</v>
+        <v>0.0036537868485720026</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01142055662503582</v>
+        <v>0.011898276233938462</v>
       </c>
       <c r="H93" t="n">
-        <v>0.006189358462760423</v>
+        <v>0.0064696099424691525</v>
       </c>
       <c r="I93" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J93" t="n">
-        <v>35.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="94">
@@ -5487,28 +5466,28 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D94" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="E94" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0036598617082220686</v>
+        <v>0.0036801032452293036</v>
       </c>
       <c r="G94" t="n">
-        <v>0.011827288179010766</v>
+        <v>0.011898276233938462</v>
       </c>
       <c r="H94" t="n">
-        <v>0.006409786193940176</v>
+        <v>0.0064696099424691525</v>
       </c>
       <c r="I94" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J94" t="n">
-        <v>46.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="95">
@@ -5519,28 +5498,28 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D95" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="E95" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0036877050834106077</v>
+        <v>0.0037428352391528272</v>
       </c>
       <c r="G95" t="n">
-        <v>0.011827288179010766</v>
+        <v>0.011898276233938462</v>
       </c>
       <c r="H95" t="n">
-        <v>0.006409786193940176</v>
+        <v>0.0064696099424691525</v>
       </c>
       <c r="I95" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J95" t="n">
-        <v>65.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="96">
@@ -5551,25 +5530,25 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E96" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003747259621072718</v>
+        <v>0.0037428352391528272</v>
       </c>
       <c r="G96" t="n">
-        <v>0.011827288179010766</v>
+        <v>0.011898276233938462</v>
       </c>
       <c r="H96" t="n">
-        <v>0.006409786193940176</v>
+        <v>0.0064696099424691525</v>
       </c>
       <c r="I96" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J96" t="n">
         <v>27.0</v>
@@ -5583,28 +5562,28 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D97" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E97" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003747259621072718</v>
+        <v>0.004339500199897518</v>
       </c>
       <c r="G97" t="n">
-        <v>0.011827288179010766</v>
+        <v>0.013651344378844276</v>
       </c>
       <c r="H97" t="n">
-        <v>0.006409786193940176</v>
+        <v>0.007422829289298387</v>
       </c>
       <c r="I97" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J97" t="n">
-        <v>27.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="98">
@@ -5615,28 +5594,28 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D98" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="E98" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004349702618708363</v>
+        <v>0.004424561502552854</v>
       </c>
       <c r="G98" t="n">
-        <v>0.013587215396583854</v>
+        <v>0.013775438904855277</v>
       </c>
       <c r="H98" t="n">
-        <v>0.007363576869435753</v>
+        <v>0.007490304876812211</v>
       </c>
       <c r="I98" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="J98" t="n">
-        <v>82.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="99">
@@ -5647,28 +5626,28 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D99" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E99" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00443254985764633</v>
+        <v>0.004696344494542352</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01370472047823304</v>
+        <v>0.014472408544406025</v>
       </c>
       <c r="H99" t="n">
-        <v>0.007427258622908995</v>
+        <v>0.007869277563357755</v>
       </c>
       <c r="I99" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J99" t="n">
-        <v>54.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="100">
@@ -5679,28 +5658,28 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D100" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="E100" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F100" t="n">
-        <v>0.004707708934086176</v>
+        <v>0.004901750306581186</v>
       </c>
       <c r="G100" t="n">
-        <v>0.014408442495233448</v>
+        <v>0.014952814066540587</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0078086400182609626</v>
+        <v>0.008130494926386655</v>
       </c>
       <c r="I100" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J100" t="n">
-        <v>87.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="101">
@@ -5711,28 +5690,28 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D101" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="E101" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="F101" t="n">
-        <v>0.004911299755956586</v>
+        <v>0.00515543143106966</v>
       </c>
       <c r="G101" t="n">
-        <v>0.014881238260548454</v>
+        <v>0.015569402921830374</v>
       </c>
       <c r="H101" t="n">
-        <v>0.008064871178202393</v>
+        <v>0.008465761086809126</v>
       </c>
       <c r="I101" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J101" t="n">
-        <v>62.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="102">
@@ -5743,28 +5722,28 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D102" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="E102" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="F102" t="n">
-        <v>0.005161900234861693</v>
+        <v>0.005234606879164516</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01548570070458508</v>
+        <v>0.01565199284661073</v>
       </c>
       <c r="H102" t="n">
-        <v>0.008392458954022138</v>
+        <v>0.008510668818652053</v>
       </c>
       <c r="I102" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J102" t="n">
-        <v>31.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="103">
@@ -5775,28 +5754,28 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D103" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E103" t="s">
-        <v>341</v>
+        <v>413</v>
       </c>
       <c r="F103" t="n">
-        <v>0.00524289795836755</v>
+        <v>0.005395424569390783</v>
       </c>
       <c r="G103" t="n">
-        <v>0.015574490993974193</v>
+        <v>0.01597468843094134</v>
       </c>
       <c r="H103" t="n">
-        <v>0.008440578756505035</v>
+        <v>0.00868613243369414</v>
       </c>
       <c r="I103" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J103" t="n">
-        <v>45.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="104">
@@ -5807,28 +5786,28 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D104" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E104" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="F104" t="n">
-        <v>0.005400997398488611</v>
+        <v>0.007858310129144957</v>
       </c>
       <c r="G104" t="n">
-        <v>0.015888370987786886</v>
+        <v>0.02304087047574541</v>
       </c>
       <c r="H104" t="n">
-        <v>0.008610685683844899</v>
+        <v>0.012528322740384398</v>
       </c>
       <c r="I104" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J104" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="105">
@@ -5839,28 +5818,28 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D105" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="E105" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F105" t="n">
-        <v>0.007867577472182375</v>
+        <v>0.00961234406422256</v>
       </c>
       <c r="G105" t="n">
-        <v>0.022921884366069803</v>
+        <v>0.02765181535018652</v>
       </c>
       <c r="H105" t="n">
-        <v>0.01242249074555112</v>
+        <v>0.015035493881593226</v>
       </c>
       <c r="I105" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J105" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="106">
@@ -5871,28 +5850,28 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D106" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E106" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F106" t="n">
-        <v>0.009623670391196942</v>
+        <v>0.009614041760826439</v>
       </c>
       <c r="G106" t="n">
-        <v>0.027537474381852094</v>
+        <v>0.02765181535018652</v>
       </c>
       <c r="H106" t="n">
-        <v>0.014923904823932348</v>
+        <v>0.015035493881593226</v>
       </c>
       <c r="I106" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J106" t="n">
-        <v>31.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="107">
@@ -5903,28 +5882,28 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="E107" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F107" t="n">
-        <v>0.009633571895961458</v>
+        <v>0.009768140726339424</v>
       </c>
       <c r="G107" t="n">
-        <v>0.027537474381852094</v>
+        <v>0.027829985842967038</v>
       </c>
       <c r="H107" t="n">
-        <v>0.014923904823932348</v>
+        <v>0.015132372922631084</v>
       </c>
       <c r="I107" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J107" t="n">
-        <v>75.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="108">
@@ -5935,28 +5914,28 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D108" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E108" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F108" t="n">
-        <v>0.009775697694751805</v>
+        <v>0.01062339308858553</v>
       </c>
       <c r="G108" t="n">
-        <v>0.027682583191680345</v>
+        <v>0.02978323257608207</v>
       </c>
       <c r="H108" t="n">
-        <v>0.015002546388404146</v>
+        <v>0.016194438068556305</v>
       </c>
       <c r="I108" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J108" t="n">
-        <v>16.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="109">
@@ -5967,28 +5946,28 @@
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D109" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="E109" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="F109" t="n">
-        <v>0.010641208619121158</v>
+        <v>0.010675590745882828</v>
       </c>
       <c r="G109" t="n">
-        <v>0.029653562142992706</v>
+        <v>0.02978323257608207</v>
       </c>
       <c r="H109" t="n">
-        <v>0.016070716325540604</v>
+        <v>0.016194438068556305</v>
       </c>
       <c r="I109" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J109" t="n">
-        <v>56.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="110">
@@ -5999,28 +5978,28 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D110" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E110" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="F110" t="n">
-        <v>0.010687001167925016</v>
+        <v>0.010749577320506444</v>
       </c>
       <c r="G110" t="n">
-        <v>0.029653562142992706</v>
+        <v>0.02978323257608207</v>
       </c>
       <c r="H110" t="n">
-        <v>0.016070716325540604</v>
+        <v>0.016194438068556305</v>
       </c>
       <c r="I110" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J110" t="n">
-        <v>27.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="111">
@@ -6031,28 +6010,28 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D111" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01076531958986534</v>
+        <v>0.011517715233378007</v>
       </c>
       <c r="G111" t="n">
-        <v>0.029653562142992706</v>
+        <v>0.03133648649081224</v>
       </c>
       <c r="H111" t="n">
-        <v>0.016070716325540604</v>
+        <v>0.017039009733589086</v>
       </c>
       <c r="I111" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J111" t="n">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="112">
@@ -6063,25 +6042,25 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D112" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E112" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F112" t="n">
-        <v>0.011533750795399767</v>
+        <v>0.011517715233378007</v>
       </c>
       <c r="G112" t="n">
-        <v>0.031202915098269012</v>
+        <v>0.03133648649081224</v>
       </c>
       <c r="H112" t="n">
-        <v>0.016910386504533494</v>
+        <v>0.017039009733589086</v>
       </c>
       <c r="I112" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J112" t="n">
         <v>42.0</v>
@@ -6095,28 +6074,28 @@
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D113" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="E113" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F113" t="n">
-        <v>0.011533750795399767</v>
+        <v>0.011669335202122587</v>
       </c>
       <c r="G113" t="n">
-        <v>0.031202915098269012</v>
+        <v>0.0314037192304086</v>
       </c>
       <c r="H113" t="n">
-        <v>0.016910386504533494</v>
+        <v>0.017075567096353227</v>
       </c>
       <c r="I113" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J113" t="n">
-        <v>42.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="114">
@@ -6127,28 +6106,28 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D114" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="E114" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="F114" t="n">
-        <v>0.01167923840615881</v>
+        <v>0.01175039825508666</v>
       </c>
       <c r="G114" t="n">
-        <v>0.031271452220877384</v>
+        <v>0.0314037192304086</v>
       </c>
       <c r="H114" t="n">
-        <v>0.01694753012491531</v>
+        <v>0.017075567096353227</v>
       </c>
       <c r="I114" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J114" t="n">
-        <v>19.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="115">
@@ -6159,28 +6138,28 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D115" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E115" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01176549687518159</v>
+        <v>0.012373677289290539</v>
       </c>
       <c r="G115" t="n">
-        <v>0.031271452220877384</v>
+        <v>0.032559538412240054</v>
       </c>
       <c r="H115" t="n">
-        <v>0.01694753012491531</v>
+        <v>0.017704036222758623</v>
       </c>
       <c r="I115" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J115" t="n">
-        <v>37.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="116">
@@ -6191,28 +6170,28 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E116" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="F116" t="n">
-        <v>0.012397817336439392</v>
+        <v>0.012398499726515253</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03243422735993127</v>
+        <v>0.032559538412240054</v>
       </c>
       <c r="H116" t="n">
-        <v>0.017577694869373904</v>
+        <v>0.017704036222758623</v>
       </c>
       <c r="I116" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J116" t="n">
-        <v>74.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="117">
@@ -6223,28 +6202,28 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D117" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E117" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F117" t="n">
-        <v>0.012417063939775666</v>
+        <v>0.013107074592531635</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03243422735993127</v>
+        <v>0.03384711087410941</v>
       </c>
       <c r="H117" t="n">
-        <v>0.017577694869373904</v>
+        <v>0.018404145334127108</v>
       </c>
       <c r="I117" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J117" t="n">
-        <v>48.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="118">
@@ -6255,28 +6234,28 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D118" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="E118" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F118" t="n">
-        <v>0.013125298165530127</v>
+        <v>0.013112953550565565</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03370492382000602</v>
+        <v>0.03384711087410941</v>
       </c>
       <c r="H118" t="n">
-        <v>0.018266347458471218</v>
+        <v>0.018404145334127108</v>
       </c>
       <c r="I118" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J118" t="n">
-        <v>43.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="119">
@@ -6287,28 +6266,28 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D119" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="E119" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F119" t="n">
-        <v>0.013126009936503995</v>
+        <v>0.013416355653544515</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03370492382000602</v>
+        <v>0.03433677463873257</v>
       </c>
       <c r="H119" t="n">
-        <v>0.018266347458471218</v>
+        <v>0.018670396806003072</v>
       </c>
       <c r="I119" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J119" t="n">
-        <v>25.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="120">
@@ -6319,28 +6298,28 @@
         <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D120" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="E120" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F120" t="n">
-        <v>0.013435478271661307</v>
+        <v>0.014051177277781482</v>
       </c>
       <c r="G120" t="n">
-        <v>0.034209663162297274</v>
+        <v>0.03561650028423162</v>
       </c>
       <c r="H120" t="n">
-        <v>0.01853989040583073</v>
+        <v>0.01936623926225212</v>
       </c>
       <c r="I120" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J120" t="n">
-        <v>45.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="121">
@@ -6351,28 +6330,28 @@
         <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D121" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E121" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F121" t="n">
-        <v>0.014062070884579302</v>
+        <v>0.014152251768568856</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03550672898356273</v>
+        <v>0.03561650028423162</v>
       </c>
       <c r="H121" t="n">
-        <v>0.019242833842055888</v>
+        <v>0.01936623926225212</v>
       </c>
       <c r="I121" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J121" t="n">
-        <v>17.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="122">
@@ -6383,28 +6362,28 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D122" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="E122" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F122" t="n">
-        <v>0.014183641986819435</v>
+        <v>0.014475581716563763</v>
       </c>
       <c r="G122" t="n">
-        <v>0.035517715057903215</v>
+        <v>0.03612913783803518</v>
       </c>
       <c r="H122" t="n">
-        <v>0.01924878773330867</v>
+        <v>0.01964498258185252</v>
       </c>
       <c r="I122" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J122" t="n">
-        <v>94.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="123">
@@ -6415,28 +6394,28 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D123" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E123" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="F123" t="n">
-        <v>0.014495175055737606</v>
+        <v>0.01581861572736277</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03600031181875816</v>
+        <v>0.03915755696445537</v>
       </c>
       <c r="H123" t="n">
-        <v>0.019510330532312915</v>
+        <v>0.021291665689979224</v>
       </c>
       <c r="I123" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J123" t="n">
-        <v>42.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="124">
@@ -6447,28 +6426,28 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E124" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="F124" t="n">
-        <v>0.015848218498009145</v>
+        <v>0.01612723879125096</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03904073337314448</v>
+        <v>0.03959696028420967</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0211580837457375</v>
+        <v>0.021530588373428753</v>
       </c>
       <c r="I124" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J124" t="n">
-        <v>73.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="125">
@@ -6479,28 +6458,28 @@
         <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D125" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E125" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="F125" t="n">
-        <v>0.016142122597464538</v>
+        <v>0.018500158065860906</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03944405763735286</v>
+        <v>0.045056836579758015</v>
       </c>
       <c r="H125" t="n">
-        <v>0.02137666489986815</v>
+        <v>0.024499360426776754</v>
       </c>
       <c r="I125" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J125" t="n">
-        <v>23.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="126">
@@ -6511,59 +6490,27 @@
         <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D126" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="E126" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="F126" t="n">
-        <v>0.018525773547478547</v>
+        <v>0.01929261374503614</v>
       </c>
       <c r="G126" t="n">
-        <v>0.044906475079087994</v>
+        <v>0.04661095480800732</v>
       </c>
       <c r="H126" t="n">
-        <v>0.02433701619710866</v>
+        <v>0.02534440205663695</v>
       </c>
       <c r="I126" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J126" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C127" t="s">
-        <v>260</v>
-      </c>
-      <c r="D127" t="s">
-        <v>335</v>
-      </c>
-      <c r="E127" t="s">
-        <v>431</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.01932593005542228</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.046474260371372624</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.025186675761452594</v>
-      </c>
-      <c r="I127" t="s">
-        <v>557</v>
-      </c>
-      <c r="J127" t="n">
         <v>67.0</v>
       </c>
     </row>
@@ -6612,31 +6559,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F2" t="n">
-        <v>2.686396744841662E-28</v>
+        <v>2.2390914616275778E-28</v>
       </c>
       <c r="G2" t="n">
-        <v>8.139782136870236E-26</v>
+        <v>6.762056214115285E-26</v>
       </c>
       <c r="H2" t="n">
-        <v>5.740405675819552E-26</v>
+        <v>4.761015528934428E-26</v>
       </c>
       <c r="I2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="J2" t="n">
         <v>111.0</v>
@@ -6644,31 +6591,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E3" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F3" t="n">
-        <v>3.7120579965268576E-26</v>
+        <v>3.1374716161200423E-26</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6237678647381896E-24</v>
+        <v>4.737582140341264E-24</v>
       </c>
       <c r="H3" t="n">
-        <v>3.966040912078695E-24</v>
+        <v>3.3356277181907815E-24</v>
       </c>
       <c r="I3" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="J3" t="n">
         <v>103.0</v>
@@ -6676,31 +6623,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E4" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F4" t="n">
-        <v>1.53412892809931E-19</v>
+        <v>1.288789245926344E-19</v>
       </c>
       <c r="G4" t="n">
-        <v>1.549470217380303E-17</v>
+        <v>1.2973811742325196E-17</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0927304294882805E-17</v>
+        <v>9.13457640972356E-18</v>
       </c>
       <c r="I4" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="J4" t="n">
         <v>124.0</v>
@@ -6708,31 +6655,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F5" t="n">
-        <v>1.1044101404324216E-16</v>
+        <v>9.494005487557786E-17</v>
       </c>
       <c r="G5" t="n">
-        <v>8.365906813775594E-15</v>
+        <v>7.167974143106128E-15</v>
       </c>
       <c r="H5" t="n">
-        <v>5.89987522388899E-15</v>
+        <v>5.046813443385981E-15</v>
       </c>
       <c r="I5" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J5" t="n">
         <v>110.0</v>
@@ -6740,31 +6687,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F6" t="n">
-        <v>5.431098149245617E-13</v>
+        <v>4.809014293280701E-13</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2912454784428436E-11</v>
+        <v>2.9046446331415434E-11</v>
       </c>
       <c r="H6" t="n">
-        <v>2.321079840624969E-11</v>
+        <v>2.045096604721477E-11</v>
       </c>
       <c r="I6" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="J6" t="n">
         <v>92.0</v>
@@ -6772,31 +6719,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F7" t="n">
-        <v>2.3922459555076857E-10</v>
+        <v>2.2568432731471742E-10</v>
       </c>
       <c r="G7" t="n">
-        <v>1.2080842075313812E-8</v>
+        <v>1.1359444474840778E-8</v>
       </c>
       <c r="H7" t="n">
-        <v>8.519753139790531E-9</v>
+        <v>7.997935810100511E-9</v>
       </c>
       <c r="I7" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="J7" t="n">
         <v>36.0</v>
@@ -6804,31 +6751,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D8" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E8" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F8" t="n">
-        <v>1.5680153869370958E-8</v>
+        <v>1.4264853551503547E-8</v>
       </c>
       <c r="G8" t="n">
-        <v>6.787266603456286E-7</v>
+        <v>6.154265389362959E-7</v>
       </c>
       <c r="H8" t="n">
-        <v>4.786573286439556E-7</v>
+        <v>4.3330833344416787E-7</v>
       </c>
       <c r="I8" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J8" t="n">
         <v>82.0</v>
@@ -6836,31 +6783,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B9" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D9" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F9" t="n">
-        <v>3.744452056852852E-8</v>
+        <v>3.504241793245096E-8</v>
       </c>
       <c r="G9" t="n">
-        <v>1.4182112165330178E-6</v>
+        <v>1.3228512769500238E-6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0001628520278014E-6</v>
+        <v>9.313905818888281E-7</v>
       </c>
       <c r="I9" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="J9" t="n">
         <v>49.0</v>
@@ -6868,31 +6815,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D10" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E10" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F10" t="n">
-        <v>5.9331835791456345E-8</v>
+        <v>5.597599175128175E-8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.9975051383123635E-6</v>
+        <v>1.8783055009874542E-6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4086973877971507E-6</v>
+        <v>1.3224737232466563E-6</v>
       </c>
       <c r="I10" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J10" t="n">
         <v>41.0</v>
@@ -6900,95 +6847,95 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D11" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E11" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0982918637607077E-7</v>
+        <v>1.4928812967838736E-7</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3278243471949443E-6</v>
+        <v>4.5085015162872984E-6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.346876298351828E-6</v>
+        <v>3.1743370731614995E-6</v>
       </c>
       <c r="I11" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="J11" t="n">
-        <v>67.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B12" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C12" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D12" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E12" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F12" t="n">
-        <v>1.554360570641947E-7</v>
+        <v>1.7742881514011038E-7</v>
       </c>
       <c r="G12" t="n">
-        <v>4.281556844586455E-6</v>
+        <v>4.871227470210303E-6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0194755582805294E-6</v>
+        <v>3.429724464909311E-6</v>
       </c>
       <c r="I12" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="J12" t="n">
-        <v>25.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B13" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C13" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D13" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E13" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F13" t="n">
-        <v>4.7532269775537047E-7</v>
+        <v>4.382295531590178E-7</v>
       </c>
       <c r="G13" t="n">
-        <v>1.2001898118323104E-5</v>
+        <v>1.1028777087835281E-5</v>
       </c>
       <c r="H13" t="n">
-        <v>8.46407961792458E-6</v>
+        <v>7.765120152466806E-6</v>
       </c>
       <c r="I13" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="J13" t="n">
         <v>74.0</v>
@@ -6996,31 +6943,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B14" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C14" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D14" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F14" t="n">
-        <v>5.992077928675751E-7</v>
+        <v>5.595989032619063E-7</v>
       </c>
       <c r="G14" t="n">
-        <v>1.3966150864528865E-5</v>
+        <v>1.2999912983468901E-5</v>
       </c>
       <c r="H14" t="n">
-        <v>9.84932647385569E-6</v>
+        <v>9.152953721368832E-6</v>
       </c>
       <c r="I14" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="J14" t="n">
         <v>57.0</v>
@@ -7028,31 +6975,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B15" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C15" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D15" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E15" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F15" t="n">
-        <v>1.096480802249531E-6</v>
+        <v>1.0622054853267898E-6</v>
       </c>
       <c r="G15" t="n">
-        <v>2.3730977362971992E-5</v>
+        <v>2.291328975490647E-5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.6735759613282318E-5</v>
+        <v>1.613274496511365E-5</v>
       </c>
       <c r="I15" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="J15" t="n">
         <v>19.0</v>
@@ -7060,95 +7007,95 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>572</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>572</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>624</v>
+        <v>255</v>
       </c>
       <c r="D16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="E16" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="F16" t="n">
-        <v>5.581917416185945E-6</v>
+        <v>5.336784246660708E-6</v>
       </c>
       <c r="G16" t="n">
-        <v>1.0612091634822124E-4</v>
+        <v>1.0183619077230543E-4</v>
       </c>
       <c r="H16" t="n">
-        <v>7.483948590824705E-5</v>
+        <v>7.170062926457196E-5</v>
       </c>
       <c r="I16" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="J16" t="n">
-        <v>22.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>568</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>568</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>620</v>
       </c>
       <c r="D17" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E17" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="F17" t="n">
-        <v>5.7804096640335206E-6</v>
+        <v>5.39529487535393E-6</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0612091634822124E-4</v>
+        <v>1.0183619077230543E-4</v>
       </c>
       <c r="H17" t="n">
-        <v>7.483948590824705E-5</v>
+        <v>7.170062926457196E-5</v>
       </c>
       <c r="I17" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="J17" t="n">
-        <v>82.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B18" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C18" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D18" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E18" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F18" t="n">
-        <v>5.953978805015713E-6</v>
+        <v>5.749070590967372E-6</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0612091634822124E-4</v>
+        <v>1.0213054814542037E-4</v>
       </c>
       <c r="H18" t="n">
-        <v>7.483948590824705E-5</v>
+        <v>7.190787983748663E-5</v>
       </c>
       <c r="I18" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="J18" t="n">
         <v>23.0</v>
@@ -7156,31 +7103,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B19" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C19" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D19" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E19" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F19" t="n">
-        <v>1.126013569140133E-5</v>
+        <v>1.0472516191893118E-5</v>
       </c>
       <c r="G19" t="n">
-        <v>1.8954561747192236E-4</v>
+        <v>1.757055494417623E-4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.3367295586868245E-4</v>
+        <v>1.2371042519078419E-4</v>
       </c>
       <c r="I19" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="J19" t="n">
         <v>73.0</v>
@@ -7188,31 +7135,31 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F20" t="n">
-        <v>1.3553786392883045E-5</v>
+        <v>1.2531402954425673E-5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1614722510755594E-4</v>
+        <v>1.991833522229765E-4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.524331655266071E-4</v>
+        <v>1.4024063140132884E-4</v>
       </c>
       <c r="I20" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="J20" t="n">
         <v>84.0</v>
@@ -7220,95 +7167,95 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B21" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C21" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D21" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E21" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="F21" t="n">
-        <v>3.0013830736903603E-5</v>
+        <v>2.3049417863471942E-5</v>
       </c>
       <c r="G21" t="n">
-        <v>4.547095356640896E-4</v>
+        <v>3.480462097384263E-4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.206740862942859E-4</v>
+        <v>2.450517057063859E-4</v>
       </c>
       <c r="I21" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="J21" t="n">
-        <v>84.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B22" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C22" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D22" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F22" t="n">
-        <v>3.389167909504422E-5</v>
+        <v>2.7821251659101744E-5</v>
       </c>
       <c r="G22" t="n">
-        <v>4.890085126570666E-4</v>
+        <v>4.0009609528803464E-4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.448626995636079E-4</v>
+        <v>2.8169888897937605E-4</v>
       </c>
       <c r="I22" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="J22" t="n">
-        <v>39.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E23" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F23" t="n">
-        <v>6.290500649624914E-5</v>
+        <v>5.9074700465151266E-5</v>
       </c>
       <c r="G23" t="n">
-        <v>8.663734985619769E-4</v>
+        <v>8.109345245670764E-4</v>
       </c>
       <c r="H23" t="n">
-        <v>6.109912114228984E-4</v>
+        <v>5.70961219806725E-4</v>
       </c>
       <c r="I23" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="J23" t="n">
         <v>65.0</v>
@@ -7316,31 +7263,31 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B24" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C24" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D24" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E24" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F24" t="n">
-        <v>8.378199944394577E-5</v>
+        <v>7.874674853442843E-5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0011037367752832856</v>
+        <v>0.0010339790459737994</v>
       </c>
       <c r="H24" t="n">
-        <v>7.783865394563383E-4</v>
+        <v>7.280019772976907E-4</v>
       </c>
       <c r="I24" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="J24" t="n">
         <v>65.0</v>
@@ -7348,31 +7295,31 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B25" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C25" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D25" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E25" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F25" t="n">
-        <v>8.812527468756962E-5</v>
+        <v>8.224897392140044E-5</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0011125815929305665</v>
+        <v>0.0010349662551776223</v>
       </c>
       <c r="H25" t="n">
-        <v>7.846241562095014E-4</v>
+        <v>7.286970496545126E-4</v>
       </c>
       <c r="I25" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="J25" t="n">
         <v>78.0</v>
@@ -7380,31 +7327,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B26" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C26" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D26" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E26" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0444490720510461E-4</v>
+        <v>1.0107700466423961E-4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0012658722753258677</v>
+        <v>0.0012210102163440146</v>
       </c>
       <c r="H26" t="n">
-        <v>8.927291015846838E-4</v>
+        <v>8.596865238811116E-4</v>
       </c>
       <c r="I26" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="J26" t="n">
         <v>24.0</v>
@@ -7412,31 +7359,31 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B27" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C27" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D27" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E27" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F27" t="n">
-        <v>1.2129166602139274E-4</v>
+        <v>1.1368936232792044E-4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0014135144155569999</v>
+        <v>0.0013205456701166143</v>
       </c>
       <c r="H27" t="n">
-        <v>9.96850534507803E-4</v>
+        <v>9.29767254665584E-4</v>
       </c>
       <c r="I27" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="J27" t="n">
         <v>72.0</v>
@@ -7444,95 +7391,95 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>581</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>581</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>633</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="E28" t="s">
-        <v>727</v>
+        <v>384</v>
       </c>
       <c r="F28" t="n">
-        <v>1.3550772929861443E-4</v>
+        <v>1.7110824272864667E-4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0015206978510177841</v>
+        <v>0.0019138773816315294</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0010724393390884495</v>
+        <v>0.001347519104529693</v>
       </c>
       <c r="I28" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="J28" t="n">
-        <v>41.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>577</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>577</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>629</v>
       </c>
       <c r="D29" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E29" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="F29" t="n">
-        <v>1.860953080171005E-4</v>
+        <v>2.1641354055171902E-4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.002013817083185052</v>
+        <v>0.0023341746159506837</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0014202010348673463</v>
+        <v>0.0016434411726107983</v>
       </c>
       <c r="I29" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="J29" t="n">
-        <v>116.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B30" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D30" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E30" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F30" t="n">
-        <v>3.011545036490391E-4</v>
+        <v>2.9375305071279275E-4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.003083982644698754</v>
+        <v>0.003001328862765062</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0021749122003607685</v>
+        <v>0.002113169851092863</v>
       </c>
       <c r="I30" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="J30" t="n">
         <v>17.0</v>
@@ -7540,31 +7487,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B31" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D31" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E31" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F31" t="n">
-        <v>3.0534481630680734E-4</v>
+        <v>2.981452512680525E-4</v>
       </c>
       <c r="G31" t="n">
-        <v>0.003083982644698754</v>
+        <v>0.003001328862765062</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0021749122003607685</v>
+        <v>0.002113169851092863</v>
       </c>
       <c r="I31" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="J31" t="n">
         <v>16.0</v>
@@ -7572,31 +7519,31 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B32" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C32" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D32" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E32" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F32" t="n">
-        <v>3.553036568229859E-4</v>
+        <v>3.418111632473661E-4</v>
       </c>
       <c r="G32" t="n">
-        <v>0.003472806710237571</v>
+        <v>0.003329902300022728</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0024491219808171864</v>
+        <v>0.0023445112046169086</v>
       </c>
       <c r="I32" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="J32" t="n">
         <v>34.0</v>
@@ -7604,31 +7551,31 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B33" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C33" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D33" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E33" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F33" t="n">
-        <v>4.5481307816124786E-4</v>
+        <v>4.374632463007173E-4</v>
       </c>
       <c r="G33" t="n">
-        <v>0.004306511333839315</v>
+        <v>0.004128559386963019</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0030370741732478066</v>
+        <v>0.002906828149761345</v>
       </c>
       <c r="I33" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="J33" t="n">
         <v>35.0</v>
@@ -7636,447 +7583,447 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>582</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>582</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>634</v>
       </c>
       <c r="D34" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E34" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="F34" t="n">
-        <v>5.789296539731377E-4</v>
+        <v>8.750007884458288E-4</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0053156268228442645</v>
+        <v>0.007946295672916657</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0037487310927128217</v>
+        <v>0.005594812568592418</v>
       </c>
       <c r="I34" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="J34" t="n">
-        <v>76.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B35" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C35" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D35" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E35" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F35" t="n">
-        <v>9.133500926670701E-4</v>
+        <v>8.946160691363124E-4</v>
       </c>
       <c r="G35" t="n">
-        <v>0.007994776723828817</v>
+        <v>0.007946295672916657</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00563814373784002</v>
+        <v>0.005594812568592418</v>
       </c>
       <c r="I35" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="J35" t="n">
-        <v>44.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B36" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C36" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D36" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E36" t="s">
-        <v>411</v>
+        <v>724</v>
       </c>
       <c r="F36" t="n">
-        <v>9.234890605082792E-4</v>
+        <v>0.0010180378875028974</v>
       </c>
       <c r="G36" t="n">
-        <v>0.007994776723828817</v>
+        <v>0.008784212629310714</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00563814373784002</v>
+        <v>0.006184771527085272</v>
       </c>
       <c r="I36" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="J36" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B37" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C37" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D37" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E37" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001043109172354059</v>
+        <v>0.0011659686148586478</v>
       </c>
       <c r="G37" t="n">
-        <v>0.008779502200646662</v>
+        <v>0.00978118115798088</v>
       </c>
       <c r="H37" t="n">
-        <v>0.006191554444089882</v>
+        <v>0.006886715210568621</v>
       </c>
       <c r="I37" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="J37" t="n">
-        <v>18.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C38" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D38" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E38" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F38" t="n">
-        <v>0.001214683652389038</v>
+        <v>0.0012321815720541284</v>
       </c>
       <c r="G38" t="n">
-        <v>0.009947274234429149</v>
+        <v>0.010008670183013954</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00701510046756685</v>
+        <v>0.0070468852456215345</v>
       </c>
       <c r="I38" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="J38" t="n">
-        <v>42.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>642</v>
+        <v>258</v>
       </c>
       <c r="D39" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E39" t="s">
-        <v>732</v>
+        <v>428</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0012912545767601296</v>
+        <v>0.0012593690958759278</v>
       </c>
       <c r="G39" t="n">
-        <v>0.010296056230482086</v>
+        <v>0.010008670183013954</v>
       </c>
       <c r="H39" t="n">
-        <v>0.007261071442723167</v>
+        <v>0.0070468852456215345</v>
       </c>
       <c r="I39" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="J39" t="n">
-        <v>53.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>587</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>587</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>639</v>
       </c>
       <c r="D40" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E40" t="s">
-        <v>431</v>
+        <v>716</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0013293978443269859</v>
+        <v>0.001387611714583325</v>
       </c>
       <c r="G40" t="n">
-        <v>0.010328398636694274</v>
+        <v>0.010568661346240966</v>
       </c>
       <c r="H40" t="n">
-        <v>0.007283880226676873</v>
+        <v>0.007441162746394825</v>
       </c>
       <c r="I40" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="J40" t="n">
-        <v>68.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>591</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>591</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>643</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E41" t="s">
-        <v>721</v>
+        <v>378</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0014360593665574506</v>
+        <v>0.0013998226948663533</v>
       </c>
       <c r="G41" t="n">
-        <v>0.010869177018036828</v>
+        <v>0.010568661346240966</v>
       </c>
       <c r="H41" t="n">
-        <v>0.007665252508811798</v>
+        <v>0.007441162746394825</v>
       </c>
       <c r="I41" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="J41" t="n">
-        <v>32.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>588</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>588</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>640</v>
       </c>
       <c r="D42" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E42" t="s">
-        <v>382</v>
+        <v>727</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001470746725212904</v>
+        <v>0.0015219449548079084</v>
       </c>
       <c r="G42" t="n">
-        <v>0.010869177018036828</v>
+        <v>0.01121042381346313</v>
       </c>
       <c r="H42" t="n">
-        <v>0.007665252508811798</v>
+        <v>0.007893013629555776</v>
       </c>
       <c r="I42" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="J42" t="n">
-        <v>59.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>592</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>592</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>644</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="E43" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0015878972002547637</v>
+        <v>0.0016853658618367986</v>
       </c>
       <c r="G43" t="n">
-        <v>0.011455544087552224</v>
+        <v>0.012118583101778886</v>
       </c>
       <c r="H43" t="n">
-        <v>0.008078775229366343</v>
+        <v>0.008532428673960734</v>
       </c>
       <c r="I43" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="J43" t="n">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>589</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>589</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>641</v>
       </c>
       <c r="D44" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="E44" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0017893057521723228</v>
+        <v>0.0017761923569693538</v>
       </c>
       <c r="G44" t="n">
-        <v>0.012522962729978339</v>
+        <v>0.012474653297784764</v>
       </c>
       <c r="H44" t="n">
-        <v>0.008831549189458408</v>
+        <v>0.008783129892480037</v>
       </c>
       <c r="I44" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="J44" t="n">
-        <v>84.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B45" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C45" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D45" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="E45" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0018185160399968544</v>
+        <v>0.0019849786479122595</v>
       </c>
       <c r="G45" t="n">
-        <v>0.012522962729978339</v>
+        <v>0.013624171628852325</v>
       </c>
       <c r="H45" t="n">
-        <v>0.008831549189458408</v>
+        <v>0.009592480547327186</v>
       </c>
       <c r="I45" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="J45" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B46" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C46" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D46" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E46" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0020302237251633632</v>
+        <v>0.002071712728553212</v>
       </c>
       <c r="G46" t="n">
-        <v>0.013670173082766645</v>
+        <v>0.013903494311623778</v>
       </c>
       <c r="H46" t="n">
-        <v>0.009640594531185095</v>
+        <v>0.009789145524391784</v>
       </c>
       <c r="I46" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J46" t="n">
-        <v>17.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D47" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E47" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002370580288341081</v>
+        <v>0.0022761738646469246</v>
       </c>
       <c r="G47" t="n">
-        <v>0.015614909290594513</v>
+        <v>0.014943576241812417</v>
       </c>
       <c r="H47" t="n">
-        <v>0.011012077769639349</v>
+        <v>0.010521444408665417</v>
       </c>
       <c r="I47" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="J47" t="n">
         <v>45.0</v>
@@ -8084,31 +8031,31 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B48" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C48" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D48" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E48" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0027874138636085053</v>
+        <v>0.002715872096662803</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0178971981511003</v>
+        <v>0.017450922833875882</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01262161273119111</v>
+        <v>0.012286812173032166</v>
       </c>
       <c r="I48" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="J48" t="n">
         <v>22.0</v>
@@ -8116,159 +8063,159 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>596</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>596</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>648</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E49" t="s">
-        <v>734</v>
+        <v>334</v>
       </c>
       <c r="F49" t="n">
-        <v>0.002835199707104998</v>
+        <v>0.0029357437148135415</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0178971981511003</v>
+        <v>0.01847072087236853</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01262161273119111</v>
+        <v>0.013004829613867003</v>
       </c>
       <c r="I49" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="J49" t="n">
-        <v>40.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E50" t="s">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0031829629184403417</v>
+        <v>0.0032925085061198786</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01968240335280456</v>
+        <v>0.020292603445881702</v>
       </c>
       <c r="H50" t="n">
-        <v>0.013880590170642092</v>
+        <v>0.014287577190896144</v>
       </c>
       <c r="I50" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="J50" t="n">
-        <v>154.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>597</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>597</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>649</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E51" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0032912576320285234</v>
+        <v>0.0034159061588874863</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01994502125009285</v>
+        <v>0.02063207319968042</v>
       </c>
       <c r="H51" t="n">
-        <v>0.014065795774774532</v>
+        <v>0.01452659040200573</v>
       </c>
       <c r="I51" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="J51" t="n">
-        <v>33.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>593</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>593</v>
       </c>
       <c r="C52" t="s">
-        <v>232</v>
+        <v>645</v>
       </c>
       <c r="D52" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="E52" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0034352885407938137</v>
+        <v>0.003793974430474092</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0204096554482456</v>
+        <v>0.022466279960846585</v>
       </c>
       <c r="H52" t="n">
-        <v>0.014393469015090697</v>
+        <v>0.015818015169365665</v>
       </c>
       <c r="I52" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="J52" t="n">
-        <v>51.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D53" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E53" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003568668295478952</v>
+        <v>0.004222254156110745</v>
       </c>
       <c r="G53" t="n">
-        <v>0.020794355644810046</v>
+        <v>0.024456302114836792</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01466477052595602</v>
+        <v>0.017219146138713948</v>
       </c>
       <c r="I53" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="J53" t="n">
         <v>54.0</v>
@@ -8276,479 +8223,479 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B54" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C54" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D54" t="s">
         <v>687</v>
       </c>
       <c r="E54" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003873547376990173</v>
+        <v>0.004292000040021026</v>
       </c>
       <c r="G54" t="n">
-        <v>0.022144997268453256</v>
+        <v>0.024456302114836792</v>
       </c>
       <c r="H54" t="n">
-        <v>0.015617281380913709</v>
+        <v>0.017219146138713948</v>
       </c>
       <c r="I54" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="J54" t="n">
-        <v>16.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>595</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>595</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>647</v>
       </c>
       <c r="D55" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="E55" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004407533147397429</v>
+        <v>0.004957218282199189</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02456246788914578</v>
+        <v>0.02772370224489176</v>
       </c>
       <c r="H55" t="n">
-        <v>0.017322150361287453</v>
+        <v>0.01951965093575509</v>
       </c>
       <c r="I55" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="J55" t="n">
-        <v>54.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B56" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C56" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D56" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="E56" t="s">
-        <v>427</v>
+        <v>729</v>
       </c>
       <c r="F56" t="n">
-        <v>0.004458533775257485</v>
+        <v>0.005567200617511948</v>
       </c>
       <c r="G56" t="n">
-        <v>0.02456246788914578</v>
+        <v>0.030568992481611063</v>
       </c>
       <c r="H56" t="n">
-        <v>0.017322150361287453</v>
+        <v>0.021522957411242362</v>
       </c>
       <c r="I56" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="J56" t="n">
-        <v>44.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B57" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C57" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D57" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E57" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00580779874794738</v>
+        <v>0.005737455017975733</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03142433965407243</v>
+        <v>0.03094127527551199</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02216133732769395</v>
+        <v>0.02178507356449432</v>
       </c>
       <c r="I57" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="J57" t="n">
-        <v>55.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B58" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C58" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D58" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E58" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0059132337394992174</v>
+        <v>0.0059186695607513825</v>
       </c>
       <c r="G58" t="n">
-        <v>0.031433505667864264</v>
+        <v>0.031358565041173986</v>
       </c>
       <c r="H58" t="n">
-        <v>0.022167801461095867</v>
+        <v>0.022078878139829717</v>
       </c>
       <c r="I58" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="J58" t="n">
-        <v>31.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>602</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>602</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>654</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E59" t="s">
-        <v>737</v>
+        <v>366</v>
       </c>
       <c r="F59" t="n">
-        <v>0.006018192372589737</v>
+        <v>0.006029594970100172</v>
       </c>
       <c r="G59" t="n">
-        <v>0.031439867049908456</v>
+        <v>0.03139547725810779</v>
       </c>
       <c r="H59" t="n">
-        <v>0.022172287688488508</v>
+        <v>0.022104867222508796</v>
       </c>
       <c r="I59" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="J59" t="n">
-        <v>12.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>651</v>
       </c>
       <c r="D60" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="E60" t="s">
-        <v>370</v>
+        <v>732</v>
       </c>
       <c r="F60" t="n">
-        <v>0.006367606669599358</v>
+        <v>0.006260876769537202</v>
       </c>
       <c r="G60" t="n">
-        <v>0.032701437642179754</v>
+        <v>0.0320471997355972</v>
       </c>
       <c r="H60" t="n">
-        <v>0.023061983120939693</v>
+        <v>0.022563730730535497</v>
       </c>
       <c r="I60" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="J60" t="n">
-        <v>87.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>603</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>603</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>655</v>
+        <v>218</v>
       </c>
       <c r="D61" t="s">
         <v>704</v>
       </c>
       <c r="E61" t="s">
-        <v>738</v>
+        <v>364</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00651673323924319</v>
+        <v>0.006774078982061799</v>
       </c>
       <c r="G61" t="n">
-        <v>0.032909502858178105</v>
+        <v>0.03409619754304439</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02320871662397136</v>
+        <v>0.024006385164499707</v>
       </c>
       <c r="I61" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="J61" t="n">
-        <v>51.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D62" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="E62" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="F62" t="n">
-        <v>0.007008503266982071</v>
+        <v>0.007134515277975767</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03481272934255029</v>
+        <v>0.035321698589322645</v>
       </c>
       <c r="H62" t="n">
-        <v>0.024550926025838835</v>
+        <v>0.024869233583280498</v>
       </c>
       <c r="I62" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="J62" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>652</v>
       </c>
       <c r="D63" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="E63" t="s">
-        <v>409</v>
+        <v>733</v>
       </c>
       <c r="F63" t="n">
-        <v>0.007391179364754207</v>
+        <v>0.007455473150649159</v>
       </c>
       <c r="G63" t="n">
-        <v>0.036121408830976205</v>
+        <v>0.03631536921767816</v>
       </c>
       <c r="H63" t="n">
-        <v>0.02547384399057902</v>
+        <v>0.02556885528745552</v>
       </c>
       <c r="I63" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="J63" t="n">
-        <v>42.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B64" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C64" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D64" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="E64" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F64" t="n">
-        <v>0.007549118424956429</v>
+        <v>0.008619077535580529</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03630766480574282</v>
+        <v>0.04089742474529306</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02560519699692824</v>
+        <v>0.028794980127393507</v>
       </c>
       <c r="I64" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J64" t="n">
-        <v>8.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B65" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C65" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D65" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="E65" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F65" t="n">
-        <v>0.009038997242021639</v>
+        <v>0.008683364346384038</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04157639237986838</v>
+        <v>0.04089742474529306</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02932085340668154</v>
+        <v>0.028794980127393507</v>
       </c>
       <c r="I65" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="J65" t="n">
-        <v>73.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C66" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D66" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E66" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00904570851720688</v>
+        <v>0.008802425855774995</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04157639237986838</v>
+        <v>0.04089742474529306</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02932085340668154</v>
+        <v>0.028794980127393507</v>
       </c>
       <c r="I66" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="J66" t="n">
-        <v>56.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>607</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>607</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>659</v>
+        <v>153</v>
       </c>
       <c r="D67" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E67" t="s">
-        <v>729</v>
+        <v>351</v>
       </c>
       <c r="F67" t="n">
-        <v>0.009056243884723805</v>
+        <v>0.009122016476643166</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04157639237986838</v>
+        <v>0.0415496688337151</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02932085340668154</v>
+        <v>0.02925421089024207</v>
       </c>
       <c r="I67" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="J67" t="n">
-        <v>30.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B68" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C68" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D68" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E68" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F68" t="n">
-        <v>0.009375609664815704</v>
+        <v>0.009217972886950039</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04240014520058446</v>
+        <v>0.0415496688337151</v>
       </c>
       <c r="H68" t="n">
-        <v>0.029901787304911047</v>
+        <v>0.02925421089024207</v>
       </c>
       <c r="I68" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="J68" t="n">
         <v>13.0</v>
@@ -8756,97 +8703,65 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>605</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>605</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>657</v>
       </c>
       <c r="D69" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="E69" t="s">
-        <v>354</v>
+        <v>737</v>
       </c>
       <c r="F69" t="n">
-        <v>0.009651925675853634</v>
+        <v>0.010454853927646545</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04300784529093605</v>
+        <v>0.04643185126690083</v>
       </c>
       <c r="H69" t="n">
-        <v>0.030330354677992076</v>
+        <v>0.0326916485044056</v>
       </c>
       <c r="I69" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="J69" t="n">
-        <v>100.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>609</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>609</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>661</v>
+        <v>253</v>
       </c>
       <c r="D70" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E70" t="s">
-        <v>743</v>
+        <v>426</v>
       </c>
       <c r="F70" t="n">
-        <v>0.010622777104581545</v>
+        <v>0.010956724769446001</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04664784728533635</v>
+        <v>0.047955520005401334</v>
       </c>
       <c r="H70" t="n">
-        <v>0.03289738752448595</v>
+        <v>0.03376443025824702</v>
       </c>
       <c r="I70" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="J70" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" t="s">
-        <v>255</v>
-      </c>
-      <c r="D71" t="s">
-        <v>715</v>
-      </c>
-      <c r="E71" t="s">
-        <v>429</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.011535268475808704</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.049931233545286245</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.03521292482088973</v>
-      </c>
-      <c r="I71" t="s">
-        <v>813</v>
-      </c>
-      <c r="J71" t="n">
         <v>88.0</v>
       </c>
     </row>
